--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1889601.836550594</v>
+        <v>-1890045.205729413</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272900.9826262287</v>
+        <v>272900.982626231</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -725,7 +725,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>216.1300362278575</v>
+        <v>101.9953813971345</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>23.47920707562718</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -753,7 +753,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>210.0746568197244</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>48.79589417666568</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6107013963115</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>167.4968915853343</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>115.0015347925513</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -987,10 +987,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>9.252887416479854</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1029,7 +1029,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1038,10 +1038,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>75.07134655490775</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.5307901185413</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>61.72400032816227</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>76.47369209631</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -1199,7 +1199,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>196.3747077436749</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>121.5789354633579</v>
       </c>
       <c r="G9" t="n">
-        <v>20.48684282892051</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>125.2040305762914</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>56.78874461372731</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>297.1936540692124</v>
       </c>
       <c r="C11" t="n">
-        <v>285.2049710268943</v>
+        <v>285.2049710268941</v>
       </c>
       <c r="D11" t="n">
-        <v>224.8642233679609</v>
+        <v>276.1862750714221</v>
       </c>
       <c r="E11" t="n">
-        <v>297.9284126413278</v>
+        <v>297.9284126413276</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>317.1002287293048</v>
       </c>
       <c r="G11" t="n">
-        <v>319.0169197254514</v>
+        <v>319.0169197254513</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>77.54049576322093</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.4257067174174</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>240.7000313093916</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>266.0001307873486</v>
+        <v>78.05043007539767</v>
       </c>
       <c r="X11" t="n">
-        <v>285.3003890200952</v>
+        <v>285.300389020095</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.6969868162939</v>
+        <v>296.6969868162938</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4323455528363</v>
+        <v>87.80307173810769</v>
       </c>
       <c r="H12" t="n">
         <v>98.85281891431895</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.00647008667583</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S12" t="n">
         <v>151.1067464546052</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.01035978931009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.57947404266793</v>
+        <v>57.57947404266774</v>
       </c>
       <c r="F13" t="n">
-        <v>58.04639837085423</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>74.31366526496984</v>
+        <v>74.31366526496966</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.80335745095489</v>
       </c>
       <c r="I13" t="n">
-        <v>49.62794829532003</v>
+        <v>49.62794829531985</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.78277168640658</v>
+        <v>54.7827716864064</v>
       </c>
       <c r="S13" t="n">
-        <v>118.533628727594</v>
+        <v>118.5336287275939</v>
       </c>
       <c r="T13" t="n">
-        <v>137.9059423370411</v>
+        <v>137.905942337041</v>
       </c>
       <c r="U13" t="n">
-        <v>191.4084814715884</v>
+        <v>191.4084814715882</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2185013435352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>190.3853874141483</v>
       </c>
       <c r="X13" t="n">
-        <v>57.44923167576235</v>
+        <v>100.5357463143615</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.9053571660193</v>
+        <v>126.9053571660191</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>297.1936540692125</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.2049710268941</v>
       </c>
       <c r="D14" t="n">
-        <v>276.1862750714222</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>297.9284126413278</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30.3731108549876</v>
+        <v>317.1002287293048</v>
       </c>
       <c r="G14" t="n">
-        <v>319.0169197254514</v>
+        <v>319.0169197254513</v>
       </c>
       <c r="H14" t="n">
-        <v>236.4138434148441</v>
+        <v>236.413843414844</v>
       </c>
       <c r="I14" t="n">
-        <v>77.5404957632209</v>
+        <v>77.54049576322075</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.06948942449534</v>
+        <v>92.06948942449517</v>
       </c>
       <c r="T14" t="n">
-        <v>129.1333413673366</v>
+        <v>129.1333413673364</v>
       </c>
       <c r="U14" t="n">
-        <v>159.4257067174174</v>
+        <v>159.4257067174172</v>
       </c>
       <c r="V14" t="n">
-        <v>240.7000313093916</v>
+        <v>240.7000313093915</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>266.0001307873484</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>285.300389020095</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.6969868162939</v>
+        <v>44.77271988960051</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>27.76381592597771</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.63574390140148</v>
+        <v>19.00647008667313</v>
       </c>
       <c r="S15" t="n">
         <v>151.1067464546052</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.27471107512839</v>
+        <v>88.81036494390942</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.31366526496983</v>
+        <v>74.31366526496966</v>
       </c>
       <c r="H16" t="n">
-        <v>64.80335745095506</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.62794829532002</v>
+        <v>49.62794829531985</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.78277168640657</v>
+        <v>6.175622524588817</v>
       </c>
       <c r="S16" t="n">
-        <v>118.533628727594</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>137.9059423370411</v>
+        <v>137.9059423370409</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.4084814715882</v>
       </c>
       <c r="V16" t="n">
-        <v>165.2185013435352</v>
+        <v>165.218501343535</v>
       </c>
       <c r="W16" t="n">
-        <v>190.3853874141485</v>
+        <v>190.3853874141483</v>
       </c>
       <c r="X16" t="n">
-        <v>136.0304894099515</v>
+        <v>136.0304894099514</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.9053571660192</v>
+        <v>126.9053571660191</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.3114801553022</v>
+        <v>222.311480155302</v>
       </c>
       <c r="C17" t="n">
-        <v>210.3227971129839</v>
+        <v>210.3227971129838</v>
       </c>
       <c r="D17" t="n">
-        <v>201.3041011575119</v>
+        <v>201.3041011575118</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0462387274174</v>
+        <v>223.0462387274173</v>
       </c>
       <c r="F17" t="n">
-        <v>242.2180548153946</v>
+        <v>242.2180548153945</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1347458115411</v>
+        <v>244.1347458115409</v>
       </c>
       <c r="H17" t="n">
-        <v>161.5316695009338</v>
+        <v>161.5316695009336</v>
       </c>
       <c r="I17" t="n">
-        <v>2.658321849310568</v>
+        <v>2.658321849310425</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.18731551058501</v>
+        <v>17.18731551058487</v>
       </c>
       <c r="T17" t="n">
-        <v>54.2511674534263</v>
+        <v>54.25116745342616</v>
       </c>
       <c r="U17" t="n">
-        <v>84.54353280350705</v>
+        <v>84.54353280350691</v>
       </c>
       <c r="V17" t="n">
-        <v>165.8178573954813</v>
+        <v>165.8178573954812</v>
       </c>
       <c r="W17" t="n">
-        <v>191.1179568734382</v>
+        <v>191.1179568734381</v>
       </c>
       <c r="X17" t="n">
-        <v>210.4182151061848</v>
+        <v>210.4182151061847</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.8148129023836</v>
+        <v>221.8148129023834</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>87.80307173811079</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H18" t="n">
         <v>98.85281891431895</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.63574390140148</v>
+        <v>19.00647008667313</v>
       </c>
       <c r="S18" t="n">
         <v>151.1067464546052</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.92819102999925</v>
+        <v>13.92819102999911</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1281858753997369</v>
+        <v>0.1281858753995948</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.65145481368369</v>
+        <v>43.65145481368354</v>
       </c>
       <c r="T19" t="n">
-        <v>63.02376842313077</v>
+        <v>63.02376842313063</v>
       </c>
       <c r="U19" t="n">
-        <v>116.526307557678</v>
+        <v>116.5263075576779</v>
       </c>
       <c r="V19" t="n">
-        <v>90.33632742962484</v>
+        <v>90.3363274296247</v>
       </c>
       <c r="W19" t="n">
-        <v>115.5032135002381</v>
+        <v>115.503213500238</v>
       </c>
       <c r="X19" t="n">
-        <v>61.14831549604122</v>
+        <v>61.14831549604108</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.02318325210891</v>
+        <v>52.02318325210877</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.3114801553022</v>
+        <v>222.311480155302</v>
       </c>
       <c r="C20" t="n">
-        <v>210.3227971129839</v>
+        <v>210.3227971129838</v>
       </c>
       <c r="D20" t="n">
-        <v>201.3041011575119</v>
+        <v>201.3041011575118</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0462387274175</v>
+        <v>223.0462387274173</v>
       </c>
       <c r="F20" t="n">
-        <v>242.2180548153946</v>
+        <v>242.2180548153945</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1347458115411</v>
+        <v>244.1347458115409</v>
       </c>
       <c r="H20" t="n">
-        <v>161.5316695009338</v>
+        <v>161.5316695009336</v>
       </c>
       <c r="I20" t="n">
-        <v>2.658321849310596</v>
+        <v>2.658321849310425</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.18731551058502</v>
+        <v>17.18731551058487</v>
       </c>
       <c r="T20" t="n">
-        <v>54.25116745342632</v>
+        <v>54.25116745342616</v>
       </c>
       <c r="U20" t="n">
-        <v>84.54353280350708</v>
+        <v>84.54353280350691</v>
       </c>
       <c r="V20" t="n">
-        <v>165.8178573954813</v>
+        <v>165.8178573954812</v>
       </c>
       <c r="W20" t="n">
-        <v>191.1179568734382</v>
+        <v>191.1179568734381</v>
       </c>
       <c r="X20" t="n">
-        <v>210.4182151061848</v>
+        <v>210.4182151061847</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.8148129023836</v>
+        <v>221.8148129023834</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.63574390140148</v>
+        <v>19.00647008667358</v>
       </c>
       <c r="S21" t="n">
         <v>151.1067464546052</v>
@@ -2214,7 +2214,7 @@
         <v>186.7625027923461</v>
       </c>
       <c r="U21" t="n">
-        <v>176.679987148203</v>
+        <v>216.3092609629287</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.92819102999928</v>
+        <v>13.92819102999911</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1281858753997653</v>
+        <v>0.1281858753995948</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.65145481368371</v>
+        <v>43.65145481368354</v>
       </c>
       <c r="T22" t="n">
-        <v>63.0237684231308</v>
+        <v>63.02376842313063</v>
       </c>
       <c r="U22" t="n">
-        <v>116.5263075576781</v>
+        <v>116.5263075576779</v>
       </c>
       <c r="V22" t="n">
-        <v>90.33632742962487</v>
+        <v>90.3363274296247</v>
       </c>
       <c r="W22" t="n">
-        <v>115.5032135002381</v>
+        <v>115.503213500238</v>
       </c>
       <c r="X22" t="n">
-        <v>61.14831549604125</v>
+        <v>61.14831549604108</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.02318325210894</v>
+        <v>52.02318325210877</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.3114801553022</v>
+        <v>222.311480155302</v>
       </c>
       <c r="C23" t="n">
-        <v>210.3227971129839</v>
+        <v>210.3227971129838</v>
       </c>
       <c r="D23" t="n">
-        <v>201.3041011575119</v>
+        <v>201.3041011575118</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0462387274175</v>
+        <v>223.0462387274173</v>
       </c>
       <c r="F23" t="n">
-        <v>242.2180548153946</v>
+        <v>242.2180548153945</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1347458115411</v>
+        <v>244.1347458115409</v>
       </c>
       <c r="H23" t="n">
-        <v>161.5316695009338</v>
+        <v>161.5316695009336</v>
       </c>
       <c r="I23" t="n">
-        <v>2.658321849310609</v>
+        <v>2.658321849310425</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.18731551058504</v>
+        <v>17.18731551058487</v>
       </c>
       <c r="T23" t="n">
-        <v>54.25116745342633</v>
+        <v>54.25116745342616</v>
       </c>
       <c r="U23" t="n">
-        <v>84.54353280350708</v>
+        <v>84.54353280350691</v>
       </c>
       <c r="V23" t="n">
-        <v>165.8178573954813</v>
+        <v>165.8178573954812</v>
       </c>
       <c r="W23" t="n">
-        <v>191.1179568734382</v>
+        <v>191.1179568734381</v>
       </c>
       <c r="X23" t="n">
-        <v>210.4182151061848</v>
+        <v>210.4182151061847</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.8148129023836</v>
+        <v>221.8148129023834</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4323455528363</v>
+        <v>87.80307173810947</v>
       </c>
       <c r="H24" t="n">
         <v>98.85281891431895</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.00647008667583</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S24" t="n">
         <v>151.1067464546052</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.92819102999928</v>
+        <v>13.92819102999911</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1281858753997653</v>
+        <v>0.1281858753995948</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.65145481368371</v>
+        <v>43.65145481368354</v>
       </c>
       <c r="T25" t="n">
-        <v>63.0237684231308</v>
+        <v>63.02376842313063</v>
       </c>
       <c r="U25" t="n">
-        <v>116.5263075576781</v>
+        <v>116.5263075576779</v>
       </c>
       <c r="V25" t="n">
-        <v>90.33632742962487</v>
+        <v>90.3363274296247</v>
       </c>
       <c r="W25" t="n">
-        <v>115.5032135002381</v>
+        <v>115.503213500238</v>
       </c>
       <c r="X25" t="n">
-        <v>61.14831549604125</v>
+        <v>61.14831549604108</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.02318325210894</v>
+        <v>52.02318325210877</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.06883588110091</v>
+        <v>59.06883588110092</v>
       </c>
       <c r="T26" t="n">
         <v>96.13268782394221</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S27" t="n">
         <v>151.1067464546052</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7625027923461</v>
+        <v>186.7625027923471</v>
       </c>
       <c r="U27" t="n">
         <v>216.3092609629287</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>252.5588719900324</v>
+        <v>252.5588719900322</v>
       </c>
       <c r="C32" t="n">
-        <v>240.5701889477142</v>
+        <v>240.5701889477139</v>
       </c>
       <c r="D32" t="n">
-        <v>231.5514929922421</v>
+        <v>231.5514929922419</v>
       </c>
       <c r="E32" t="n">
-        <v>253.2936305621477</v>
+        <v>253.2936305621475</v>
       </c>
       <c r="F32" t="n">
-        <v>272.4654466501248</v>
+        <v>272.4654466501246</v>
       </c>
       <c r="G32" t="n">
-        <v>274.3821376462713</v>
+        <v>274.3821376462711</v>
       </c>
       <c r="H32" t="n">
-        <v>191.779061335664</v>
+        <v>191.7790613356638</v>
       </c>
       <c r="I32" t="n">
-        <v>32.90571368404083</v>
+        <v>32.90571368404061</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.43470734531525</v>
+        <v>47.43470734531503</v>
       </c>
       <c r="T32" t="n">
-        <v>84.49855928815654</v>
+        <v>84.49855928815632</v>
       </c>
       <c r="U32" t="n">
-        <v>114.7909246382373</v>
+        <v>114.7909246382371</v>
       </c>
       <c r="V32" t="n">
-        <v>196.0652492302115</v>
+        <v>196.0652492302113</v>
       </c>
       <c r="W32" t="n">
-        <v>221.3653487081685</v>
+        <v>221.3653487081682</v>
       </c>
       <c r="X32" t="n">
-        <v>240.6656069409151</v>
+        <v>240.6656069409148</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.0622047371138</v>
+        <v>252.0622047371136</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.17558286472951</v>
+        <v>44.17558286472928</v>
       </c>
       <c r="C34" t="n">
-        <v>30.37557771012999</v>
+        <v>30.37557771012976</v>
       </c>
       <c r="D34" t="n">
-        <v>13.99694210770838</v>
+        <v>13.99694210770815</v>
       </c>
       <c r="E34" t="n">
-        <v>12.94469196348783</v>
+        <v>12.9446919634876</v>
       </c>
       <c r="F34" t="n">
-        <v>13.41161629167414</v>
+        <v>13.41161629167391</v>
       </c>
       <c r="G34" t="n">
-        <v>29.67888318578975</v>
+        <v>29.67888318578952</v>
       </c>
       <c r="H34" t="n">
-        <v>20.16857537177498</v>
+        <v>20.16857537177475</v>
       </c>
       <c r="I34" t="n">
-        <v>4.993166216139937</v>
+        <v>4.993166216139709</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.14798960722649</v>
+        <v>10.14798960722626</v>
       </c>
       <c r="S34" t="n">
-        <v>73.89884664841394</v>
+        <v>73.89884664841371</v>
       </c>
       <c r="T34" t="n">
-        <v>93.27116025786101</v>
+        <v>93.27116025786079</v>
       </c>
       <c r="U34" t="n">
-        <v>146.7736993924083</v>
+        <v>146.7736993924081</v>
       </c>
       <c r="V34" t="n">
-        <v>120.5837192643551</v>
+        <v>120.5837192643549</v>
       </c>
       <c r="W34" t="n">
-        <v>145.7506053349684</v>
+        <v>145.7506053349681</v>
       </c>
       <c r="X34" t="n">
-        <v>91.39570733077147</v>
+        <v>91.39570733077124</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.27057508683916</v>
+        <v>82.27057508683893</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C35" t="n">
-        <v>212.9647487006323</v>
+        <v>212.9647487006324</v>
       </c>
       <c r="D35" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E35" t="n">
-        <v>225.6881903150658</v>
+        <v>225.6881903150659</v>
       </c>
       <c r="F35" t="n">
         <v>244.860006403043</v>
@@ -3284,7 +3284,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.300273436958975</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.82926709823342</v>
+        <v>19.82926709823344</v>
       </c>
       <c r="T35" t="n">
-        <v>56.8931190410747</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U35" t="n">
-        <v>87.18548439115546</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V35" t="n">
         <v>168.4598089831297</v>
@@ -3329,7 +3329,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X35" t="n">
-        <v>213.0601666938332</v>
+        <v>213.0601666938333</v>
       </c>
       <c r="Y35" t="n">
         <v>224.456764490032</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764766</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048144</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.073442938707903</v>
+        <v>2.073442938707931</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133209</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T37" t="n">
-        <v>65.66572001077917</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U37" t="n">
-        <v>119.1682591453264</v>
+        <v>119.1682591453265</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727325</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W37" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X37" t="n">
-        <v>63.79026708368963</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975731</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I38" t="n">
-        <v>5.300273436959016</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I39" t="n">
-        <v>67.39308974070426</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>58.63574390140148</v>
+        <v>58.63574390140238</v>
       </c>
       <c r="S39" t="n">
         <v>151.1067464546052</v>
@@ -3743,22 +3743,22 @@
         <v>212.9647487006324</v>
       </c>
       <c r="D41" t="n">
-        <v>203.9460527451603</v>
+        <v>203.9460527451604</v>
       </c>
       <c r="E41" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F41" t="n">
-        <v>244.860006403043</v>
+        <v>244.8600064030431</v>
       </c>
       <c r="G41" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H41" t="n">
-        <v>164.1736210885822</v>
+        <v>164.1736210885823</v>
       </c>
       <c r="I41" t="n">
-        <v>5.300273436959003</v>
+        <v>5.300273436959031</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.82926709823343</v>
+        <v>19.82926709823347</v>
       </c>
       <c r="T41" t="n">
-        <v>56.89311904107473</v>
+        <v>56.89311904107476</v>
       </c>
       <c r="U41" t="n">
-        <v>87.18548439115548</v>
+        <v>87.18548439115551</v>
       </c>
       <c r="V41" t="n">
-        <v>168.4598089831297</v>
+        <v>168.4598089831298</v>
       </c>
       <c r="W41" t="n">
-        <v>193.7599084610866</v>
+        <v>193.7599084610867</v>
       </c>
       <c r="X41" t="n">
         <v>213.0601666938333</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764772</v>
       </c>
       <c r="C43" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048201</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.073442938707931</v>
+        <v>2.07344293870796</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133215</v>
       </c>
       <c r="T43" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077922</v>
       </c>
       <c r="U43" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V43" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727331</v>
       </c>
       <c r="W43" t="n">
-        <v>118.1451650878865</v>
+        <v>118.1451650878866</v>
       </c>
       <c r="X43" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368968</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975737</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.9534317429507</v>
+        <v>224.9534317429506</v>
       </c>
       <c r="C44" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D44" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E44" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F44" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G44" t="n">
-        <v>246.7766973991896</v>
+        <v>246.7766973991895</v>
       </c>
       <c r="H44" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I44" t="n">
-        <v>5.30027343695906</v>
+        <v>5.300273436958988</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.8292670982335</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T44" t="n">
-        <v>56.89311904107479</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U44" t="n">
-        <v>87.18548439115554</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V44" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W44" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X44" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.4567644900321</v>
+        <v>224.456764490032</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.57014261764775</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C46" t="n">
-        <v>2.770137463048229</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.073442938707988</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.29340640133218</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T46" t="n">
-        <v>65.66572001077925</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U46" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V46" t="n">
-        <v>92.97827901727334</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W46" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X46" t="n">
-        <v>63.79026708368971</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.6651348397574</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.997379547353</v>
+        <v>1436.284909679395</v>
       </c>
       <c r="C2" t="n">
-        <v>939.0636208801604</v>
+        <v>1436.284909679395</v>
       </c>
       <c r="D2" t="n">
-        <v>566.239656107384</v>
+        <v>1436.284909679395</v>
       </c>
       <c r="E2" t="n">
-        <v>566.239656107384</v>
+        <v>1041.499189785501</v>
       </c>
       <c r="F2" t="n">
-        <v>556.1288694579584</v>
+        <v>627.3479990956716</v>
       </c>
       <c r="G2" t="n">
-        <v>544.0652869525504</v>
+        <v>211.2440125498597</v>
       </c>
       <c r="H2" t="n">
         <v>211.2440125498597</v>
       </c>
       <c r="I2" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J2" t="n">
-        <v>38.42681375865573</v>
+        <v>110.4253580314613</v>
       </c>
       <c r="K2" t="n">
-        <v>174.2910552916127</v>
+        <v>350.5657300762441</v>
       </c>
       <c r="L2" t="n">
-        <v>522.176428376559</v>
+        <v>698.4511031611903</v>
       </c>
       <c r="M2" t="n">
-        <v>915.4155946296469</v>
+        <v>1091.690269414278</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.746953317363</v>
+        <v>1470.021628101994</v>
       </c>
       <c r="O2" t="n">
-        <v>1598.751537790196</v>
+        <v>1598.751537790194</v>
       </c>
       <c r="P2" t="n">
-        <v>1826.908434246249</v>
+        <v>1826.908434246247</v>
       </c>
       <c r="Q2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="S2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="T2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="U2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="V2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="W2" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="X2" t="n">
-        <v>1539.31054745428</v>
+        <v>1539.310547454278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.997379547353</v>
+        <v>1436.284909679395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817.8017168073978</v>
+        <v>632.7242623419875</v>
       </c>
       <c r="C3" t="n">
-        <v>656.0980440483526</v>
+        <v>632.7242623419875</v>
       </c>
       <c r="D3" t="n">
-        <v>517.2594070385646</v>
+        <v>493.8856253321995</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2313970954358</v>
+        <v>470.1692545487377</v>
       </c>
       <c r="F3" t="n">
-        <v>235.5375990453102</v>
+        <v>335.4754564986121</v>
       </c>
       <c r="G3" t="n">
-        <v>106.8090990685947</v>
+        <v>206.7469565218967</v>
       </c>
       <c r="H3" t="n">
         <v>106.8090990685947</v>
       </c>
       <c r="I3" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J3" t="n">
-        <v>38.42681375865573</v>
+        <v>98.68096029176183</v>
       </c>
       <c r="K3" t="n">
-        <v>38.42681375865573</v>
+        <v>328.1715128519505</v>
       </c>
       <c r="L3" t="n">
-        <v>404.2486589287714</v>
+        <v>693.9933580220661</v>
       </c>
       <c r="M3" t="n">
-        <v>593.7413678239795</v>
+        <v>1169.52517828543</v>
       </c>
       <c r="N3" t="n">
-        <v>1069.273188087344</v>
+        <v>1645.056998548794</v>
       </c>
       <c r="O3" t="n">
-        <v>1461.473138871495</v>
+        <v>1763.56905814719</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.569058147192</v>
+        <v>1763.56905814719</v>
       </c>
       <c r="Q3" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R3" t="n">
-        <v>1921.340687932787</v>
+        <v>1861.55641902773</v>
       </c>
       <c r="S3" t="n">
-        <v>1768.541200945527</v>
+        <v>1861.55641902773</v>
       </c>
       <c r="T3" t="n">
-        <v>1579.856097111512</v>
+        <v>1672.871315193715</v>
       </c>
       <c r="U3" t="n">
-        <v>1579.856097111512</v>
+        <v>1454.376522792026</v>
       </c>
       <c r="V3" t="n">
-        <v>1579.856097111512</v>
+        <v>1225.980900240359</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.659474061285</v>
+        <v>984.6650314736695</v>
       </c>
       <c r="X3" t="n">
-        <v>1169.74248593908</v>
+        <v>984.6650314736695</v>
       </c>
       <c r="Y3" t="n">
-        <v>977.2211595886588</v>
+        <v>792.1437051232483</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="C4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="D4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="E4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="F4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="G4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="H4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="I4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="J4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
       <c r="K4" t="n">
-        <v>72.03100150329914</v>
+        <v>1422.885630431496</v>
       </c>
       <c r="L4" t="n">
-        <v>172.6380809035587</v>
+        <v>1523.492709831755</v>
       </c>
       <c r="M4" t="n">
-        <v>290.6315870311604</v>
+        <v>1641.486215959357</v>
       </c>
       <c r="N4" t="n">
-        <v>409.0539287807608</v>
+        <v>1759.908557708957</v>
       </c>
       <c r="O4" t="n">
-        <v>507.5175752764504</v>
+        <v>1858.372204204647</v>
       </c>
       <c r="P4" t="n">
-        <v>570.4860590045882</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.4860590045882</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R4" t="n">
-        <v>570.4860590045882</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4860590045882</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="T4" t="n">
-        <v>570.4860590045882</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="U4" t="n">
-        <v>570.4860590045882</v>
+        <v>1872.051905936152</v>
       </c>
       <c r="V4" t="n">
-        <v>309.7507545630108</v>
+        <v>1611.316601494575</v>
       </c>
       <c r="W4" t="n">
-        <v>38.42681375865573</v>
+        <v>1611.316601494575</v>
       </c>
       <c r="X4" t="n">
-        <v>38.42681375865573</v>
+        <v>1611.316601494575</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.42681375865573</v>
+        <v>1389.281442686852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1388.588089772988</v>
+        <v>1320.997379547353</v>
       </c>
       <c r="C5" t="n">
-        <v>1006.654331105795</v>
+        <v>939.0636208801604</v>
       </c>
       <c r="D5" t="n">
-        <v>633.8303663330189</v>
+        <v>566.239656107384</v>
       </c>
       <c r="E5" t="n">
-        <v>633.8303663330189</v>
+        <v>566.239656107384</v>
       </c>
       <c r="F5" t="n">
-        <v>219.6791756431892</v>
+        <v>556.1288694579584</v>
       </c>
       <c r="G5" t="n">
-        <v>207.6155931377813</v>
+        <v>544.0652869525504</v>
       </c>
       <c r="H5" t="n">
-        <v>38.42681375865573</v>
+        <v>211.2440125498597</v>
       </c>
       <c r="I5" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J5" t="n">
-        <v>110.4253580314614</v>
+        <v>110.4253580314613</v>
       </c>
       <c r="K5" t="n">
-        <v>174.2910552916127</v>
+        <v>174.2910552916105</v>
       </c>
       <c r="L5" t="n">
-        <v>522.176428376559</v>
+        <v>522.1764283765567</v>
       </c>
       <c r="M5" t="n">
-        <v>915.4155946296469</v>
+        <v>915.4155946296446</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.746953317363</v>
+        <v>1293.74695331736</v>
       </c>
       <c r="O5" t="n">
-        <v>1598.751537790197</v>
+        <v>1598.751537790194</v>
       </c>
       <c r="P5" t="n">
-        <v>1826.90843424625</v>
+        <v>1826.908434246247</v>
       </c>
       <c r="Q5" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R5" t="n">
-        <v>1830.70240142864</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="S5" t="n">
-        <v>1643.473426058994</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="T5" t="n">
-        <v>1643.473426058994</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="U5" t="n">
-        <v>1388.588089772988</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.588089772988</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="W5" t="n">
-        <v>1388.588089772988</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="X5" t="n">
-        <v>1388.588089772988</v>
+        <v>1714.539234971515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1388.588089772988</v>
+        <v>1320.997379547353</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698.4195677564196</v>
+        <v>756.0359015016544</v>
       </c>
       <c r="C6" t="n">
-        <v>536.7158949973743</v>
+        <v>756.0359015016544</v>
       </c>
       <c r="D6" t="n">
-        <v>397.8772579875864</v>
+        <v>617.1972644918665</v>
       </c>
       <c r="E6" t="n">
-        <v>250.8492480444576</v>
+        <v>470.1692545487377</v>
       </c>
       <c r="F6" t="n">
-        <v>116.155449994332</v>
+        <v>335.4754564986121</v>
       </c>
       <c r="G6" t="n">
-        <v>116.155449994332</v>
+        <v>206.7469565218967</v>
       </c>
       <c r="H6" t="n">
         <v>106.8090990685947</v>
       </c>
       <c r="I6" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J6" t="n">
-        <v>98.68096029176188</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K6" t="n">
-        <v>98.68096029176188</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="L6" t="n">
-        <v>464.5028054618775</v>
+        <v>275.9811773462081</v>
       </c>
       <c r="M6" t="n">
-        <v>593.7413678239797</v>
+        <v>751.5129976095723</v>
       </c>
       <c r="N6" t="n">
-        <v>1069.273188087344</v>
+        <v>1227.044817872936</v>
       </c>
       <c r="O6" t="n">
-        <v>1461.473138871495</v>
+        <v>1619.244768657087</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.569058147192</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="Q6" t="n">
-        <v>1921.340687932787</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R6" t="n">
-        <v>1861.556419027733</v>
+        <v>1861.55641902773</v>
       </c>
       <c r="S6" t="n">
-        <v>1708.756932040473</v>
+        <v>1708.75693204047</v>
       </c>
       <c r="T6" t="n">
-        <v>1520.071828206458</v>
+        <v>1520.071828206456</v>
       </c>
       <c r="U6" t="n">
-        <v>1520.071828206458</v>
+        <v>1301.577035804766</v>
       </c>
       <c r="V6" t="n">
-        <v>1291.676205654792</v>
+        <v>1073.1814132531</v>
       </c>
       <c r="W6" t="n">
-        <v>1050.360336888102</v>
+        <v>831.8655444864097</v>
       </c>
       <c r="X6" t="n">
-        <v>1050.360336888102</v>
+        <v>756.0359015016544</v>
       </c>
       <c r="Y6" t="n">
-        <v>857.8390105376806</v>
+        <v>756.0359015016544</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="C7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="D7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="E7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="F7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="G7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="H7" t="n">
-        <v>38.42681375865573</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="I7" t="n">
-        <v>38.42681375865573</v>
+        <v>98.48405234448296</v>
       </c>
       <c r="J7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K7" t="n">
-        <v>72.03100150329914</v>
+        <v>72.03100150329911</v>
       </c>
       <c r="L7" t="n">
-        <v>172.6380809035587</v>
+        <v>172.6380809035586</v>
       </c>
       <c r="M7" t="n">
-        <v>290.6315870311604</v>
+        <v>290.6315870311603</v>
       </c>
       <c r="N7" t="n">
-        <v>409.0539287807608</v>
+        <v>409.0539287807607</v>
       </c>
       <c r="O7" t="n">
         <v>507.5175752764504</v>
       </c>
       <c r="P7" t="n">
-        <v>570.4860590045882</v>
+        <v>570.4860590045881</v>
       </c>
       <c r="Q7" t="n">
-        <v>570.4860590045882</v>
+        <v>531.9487176582771</v>
       </c>
       <c r="R7" t="n">
-        <v>570.4860590045882</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4860590045882</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="T7" t="n">
-        <v>570.4860590045882</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="U7" t="n">
-        <v>570.4860590045882</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="V7" t="n">
-        <v>508.1385839256365</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="W7" t="n">
-        <v>221.9821824430356</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="X7" t="n">
-        <v>221.9821824430356</v>
+        <v>168.7171736763429</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.9821824430356</v>
+        <v>168.7171736763429</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.4447788886692</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="C8" t="n">
         <v>64.19862525603281</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>1673.595244451756</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W8" t="n">
-        <v>1311.060314309357</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X8" t="n">
-        <v>929.0301738308503</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y8" t="n">
-        <v>535.4883184066883</v>
+        <v>64.19862525603281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>674.4636602520131</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>512.7599874929679</v>
+        <v>461.879904359699</v>
       </c>
       <c r="D9" t="n">
-        <v>512.7599874929679</v>
+        <v>461.879904359699</v>
       </c>
       <c r="E9" t="n">
-        <v>365.7319775498391</v>
+        <v>461.879904359699</v>
       </c>
       <c r="F9" t="n">
-        <v>231.0381794997134</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
-        <v>1693.889799997958</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1694.032908824257</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1465.63728627259</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1224.321417505901</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1026.404429383695</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>833.8831030332741</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>168.4929738550289</v>
       </c>
       <c r="C10" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>251.3956386365747</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>99.38662439789348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -5005,7 +5005,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>352.0483425394087</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1267.282506099635</v>
+        <v>1561.102490614327</v>
       </c>
       <c r="C11" t="n">
-        <v>979.1966767795401</v>
+        <v>1273.016661294232</v>
       </c>
       <c r="D11" t="n">
-        <v>752.0610976199837</v>
+        <v>994.0406258685528</v>
       </c>
       <c r="E11" t="n">
-        <v>451.123307073188</v>
+        <v>693.1028353217572</v>
       </c>
       <c r="F11" t="n">
-        <v>451.123307073188</v>
+        <v>372.7995739790252</v>
       </c>
       <c r="G11" t="n">
-        <v>128.8839942191967</v>
+        <v>50.560261125034</v>
       </c>
       <c r="H11" t="n">
-        <v>128.8839942191967</v>
+        <v>50.560261125034</v>
       </c>
       <c r="I11" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J11" t="n">
-        <v>215.9320352878605</v>
+        <v>151.340434556409</v>
       </c>
       <c r="K11" t="n">
-        <v>550.1403204513688</v>
+        <v>485.5487197199175</v>
       </c>
       <c r="L11" t="n">
-        <v>992.5958488440428</v>
+        <v>928.0042481125918</v>
       </c>
       <c r="M11" t="n">
-        <v>1480.697021878246</v>
+        <v>1324.125065593705</v>
       </c>
       <c r="N11" t="n">
-        <v>1889.345414745173</v>
+        <v>1705.384703638988</v>
       </c>
       <c r="O11" t="n">
-        <v>2197.115090379132</v>
+        <v>2013.154379272947</v>
       </c>
       <c r="P11" t="n">
-        <v>2427.63192816856</v>
+        <v>2335.651572615466</v>
       </c>
       <c r="Q11" t="n">
-        <v>2523.836399514294</v>
+        <v>2523.83639951429</v>
       </c>
       <c r="R11" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="S11" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="T11" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="U11" t="n">
-        <v>2366.976988860372</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="V11" t="n">
-        <v>2123.84564410341</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="W11" t="n">
-        <v>1855.158643308109</v>
+        <v>2449.174237993722</v>
       </c>
       <c r="X11" t="n">
-        <v>1566.9764321767</v>
+        <v>2160.992026862313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1267.282506099635</v>
+        <v>1861.298100785248</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>929.4690801071807</v>
+        <v>889.4395105973538</v>
       </c>
       <c r="C12" t="n">
-        <v>767.7654073481355</v>
+        <v>727.7358378383085</v>
       </c>
       <c r="D12" t="n">
-        <v>628.9267703383475</v>
+        <v>588.8972008285206</v>
       </c>
       <c r="E12" t="n">
-        <v>481.8987603952187</v>
+        <v>441.8691908853918</v>
       </c>
       <c r="F12" t="n">
-        <v>347.2049623450931</v>
+        <v>307.1753928352662</v>
       </c>
       <c r="G12" t="n">
-        <v>218.4854213826322</v>
+        <v>218.4854213826321</v>
       </c>
       <c r="H12" t="n">
-        <v>118.6340891459464</v>
+        <v>118.6340891459463</v>
       </c>
       <c r="I12" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J12" t="n">
-        <v>71.61442456124698</v>
+        <v>71.61442456124379</v>
       </c>
       <c r="K12" t="n">
-        <v>302.5228724357152</v>
+        <v>302.522872435712</v>
       </c>
       <c r="L12" t="n">
-        <v>670.2512528350296</v>
+        <v>670.2512528350264</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.509443032271</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649308</v>
       </c>
       <c r="O12" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P12" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000484</v>
       </c>
       <c r="Q12" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R12" t="n">
-        <v>2508.814601618697</v>
+        <v>2468.78503210887</v>
       </c>
       <c r="S12" t="n">
-        <v>2356.181524391823</v>
+        <v>2316.151954881996</v>
       </c>
       <c r="T12" t="n">
-        <v>2167.532531672281</v>
+        <v>2127.502962162454</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.038328679424</v>
+        <v>1909.008759169597</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.642706127758</v>
+        <v>1680.613136617931</v>
       </c>
       <c r="W12" t="n">
-        <v>1479.326837361068</v>
+        <v>1439.297267851241</v>
       </c>
       <c r="X12" t="n">
-        <v>1281.409849238863</v>
+        <v>1241.380279729036</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.888522888442</v>
+        <v>1048.858953378615</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.3156608857635</v>
+        <v>299.3728318865615</v>
       </c>
       <c r="C13" t="n">
-        <v>292.5476206945412</v>
+        <v>299.3728318865615</v>
       </c>
       <c r="D13" t="n">
-        <v>292.5476206945412</v>
+        <v>299.3728318865615</v>
       </c>
       <c r="E13" t="n">
-        <v>234.3865358029574</v>
+        <v>241.2117469949779</v>
       </c>
       <c r="F13" t="n">
-        <v>175.7538101758319</v>
+        <v>241.2117469949779</v>
       </c>
       <c r="G13" t="n">
-        <v>100.6895018273775</v>
+        <v>166.1474386465237</v>
       </c>
       <c r="H13" t="n">
-        <v>100.6895018273775</v>
+        <v>100.6895018273773</v>
       </c>
       <c r="I13" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J13" t="n">
-        <v>84.19897299561997</v>
+        <v>84.19897299562012</v>
       </c>
       <c r="K13" t="n">
-        <v>210.638785141604</v>
+        <v>210.6387851416043</v>
       </c>
       <c r="L13" t="n">
-        <v>404.3206697619559</v>
+        <v>404.3206697619563</v>
       </c>
       <c r="M13" t="n">
-        <v>615.4484751633349</v>
+        <v>615.4484751633356</v>
       </c>
       <c r="N13" t="n">
-        <v>826.9776779842257</v>
+        <v>826.9776779842268</v>
       </c>
       <c r="O13" t="n">
-        <v>1018.462190209265</v>
+        <v>1018.462190209266</v>
       </c>
       <c r="P13" t="n">
-        <v>1174.301365699971</v>
+        <v>1174.301365699972</v>
       </c>
       <c r="Q13" t="n">
-        <v>1229.127695641266</v>
+        <v>1229.127695641267</v>
       </c>
       <c r="R13" t="n">
-        <v>1173.791562624693</v>
+        <v>1173.791562624695</v>
       </c>
       <c r="S13" t="n">
-        <v>1054.060624516012</v>
+        <v>1054.060624516015</v>
       </c>
       <c r="T13" t="n">
-        <v>914.7616928624356</v>
+        <v>914.7616928624377</v>
       </c>
       <c r="U13" t="n">
-        <v>721.4197923860836</v>
+        <v>721.4197923860856</v>
       </c>
       <c r="V13" t="n">
-        <v>554.5324172916036</v>
+        <v>721.4197923860856</v>
       </c>
       <c r="W13" t="n">
-        <v>554.5324172916036</v>
+        <v>529.1113202505823</v>
       </c>
       <c r="X13" t="n">
-        <v>496.5028903463891</v>
+        <v>427.5600613471868</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.3156608857635</v>
+        <v>299.3728318865615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1300.518905035392</v>
+        <v>1298.314259771211</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.518905035392</v>
+        <v>1010.228430451115</v>
       </c>
       <c r="D14" t="n">
-        <v>1021.542869609713</v>
+        <v>1010.228430451115</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6050790629176</v>
+        <v>1010.228430451115</v>
       </c>
       <c r="F14" t="n">
-        <v>689.9251691083839</v>
+        <v>689.9251691083834</v>
       </c>
       <c r="G14" t="n">
-        <v>367.6858562543926</v>
+        <v>367.6858562543923</v>
       </c>
       <c r="H14" t="n">
-        <v>128.8839942191966</v>
+        <v>128.8839942191964</v>
       </c>
       <c r="I14" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J14" t="n">
-        <v>215.9320352878605</v>
+        <v>215.9320352878607</v>
       </c>
       <c r="K14" t="n">
-        <v>485.5487197199218</v>
+        <v>550.1403204513691</v>
       </c>
       <c r="L14" t="n">
-        <v>836.0238925595058</v>
+        <v>992.5958488440434</v>
       </c>
       <c r="M14" t="n">
-        <v>1232.144710040619</v>
+        <v>1480.697021878247</v>
       </c>
       <c r="N14" t="n">
-        <v>1705.384703638993</v>
+        <v>1861.95665992353</v>
       </c>
       <c r="O14" t="n">
-        <v>2105.134734826041</v>
+        <v>2169.726335557489</v>
       </c>
       <c r="P14" t="n">
-        <v>2427.63192816856</v>
+        <v>2400.243173346918</v>
       </c>
       <c r="Q14" t="n">
-        <v>2523.836399514294</v>
+        <v>2523.83639951429</v>
       </c>
       <c r="R14" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.013571984536</v>
+        <v>2435.013571984533</v>
       </c>
       <c r="T14" t="n">
-        <v>2304.575853431671</v>
+        <v>2304.575853431668</v>
       </c>
       <c r="U14" t="n">
-        <v>2143.53978604034</v>
+        <v>2143.539786040337</v>
       </c>
       <c r="V14" t="n">
-        <v>1900.408441283379</v>
+        <v>1900.408441283376</v>
       </c>
       <c r="W14" t="n">
-        <v>1900.408441283379</v>
+        <v>1631.721440488075</v>
       </c>
       <c r="X14" t="n">
-        <v>1900.408441283379</v>
+        <v>1343.539229356666</v>
       </c>
       <c r="Y14" t="n">
-        <v>1600.714515206314</v>
+        <v>1298.314259771211</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>889.439510597357</v>
+        <v>929.4690801071807</v>
       </c>
       <c r="C15" t="n">
-        <v>727.7358378383117</v>
+        <v>767.7654073481355</v>
       </c>
       <c r="D15" t="n">
-        <v>588.8972008285238</v>
+        <v>628.9267703383475</v>
       </c>
       <c r="E15" t="n">
-        <v>441.869190885395</v>
+        <v>481.8987603952187</v>
       </c>
       <c r="F15" t="n">
-        <v>307.1753928352693</v>
+        <v>347.204962345093</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4558518728085</v>
+        <v>218.4854213826321</v>
       </c>
       <c r="H15" t="n">
-        <v>78.60451963612266</v>
+        <v>118.6340891459463</v>
       </c>
       <c r="I15" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6439940710716</v>
+        <v>71.61442456124425</v>
       </c>
       <c r="K15" t="n">
-        <v>342.5524419455398</v>
+        <v>302.5228724357125</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2808223448542</v>
+        <v>670.2512528350269</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.539012542098</v>
+        <v>1157.509443032271</v>
       </c>
       <c r="N15" t="n">
-        <v>1711.088380159135</v>
+        <v>1671.058810649308</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.37748994901</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P15" t="n">
-        <v>2409.150143510312</v>
+        <v>2369.120574000484</v>
       </c>
       <c r="Q15" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R15" t="n">
-        <v>2468.785032108873</v>
+        <v>2508.814601618697</v>
       </c>
       <c r="S15" t="n">
-        <v>2316.151954881999</v>
+        <v>2356.181524391823</v>
       </c>
       <c r="T15" t="n">
-        <v>2127.502962162458</v>
+        <v>2167.532531672281</v>
       </c>
       <c r="U15" t="n">
-        <v>1909.0087591696</v>
+        <v>1949.038328679424</v>
       </c>
       <c r="V15" t="n">
-        <v>1680.613136617934</v>
+        <v>1720.642706127758</v>
       </c>
       <c r="W15" t="n">
-        <v>1439.297267851244</v>
+        <v>1479.326837361068</v>
       </c>
       <c r="X15" t="n">
-        <v>1241.380279729039</v>
+        <v>1281.409849238863</v>
       </c>
       <c r="Y15" t="n">
-        <v>1048.858953378618</v>
+        <v>1088.888522888442</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.2117469949784</v>
+        <v>175.7538101758315</v>
       </c>
       <c r="C16" t="n">
-        <v>241.2117469949784</v>
+        <v>175.7538101758315</v>
       </c>
       <c r="D16" t="n">
-        <v>241.2117469949784</v>
+        <v>175.7538101758315</v>
       </c>
       <c r="E16" t="n">
-        <v>241.2117469949784</v>
+        <v>175.7538101758315</v>
       </c>
       <c r="F16" t="n">
-        <v>241.2117469949784</v>
+        <v>175.7538101758315</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1474386465241</v>
+        <v>100.6895018273773</v>
       </c>
       <c r="H16" t="n">
-        <v>100.6895018273775</v>
+        <v>100.6895018273773</v>
       </c>
       <c r="I16" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J16" t="n">
-        <v>84.19897299562001</v>
+        <v>84.19897299562007</v>
       </c>
       <c r="K16" t="n">
-        <v>210.638785141604</v>
+        <v>210.6387851416043</v>
       </c>
       <c r="L16" t="n">
-        <v>404.3206697619559</v>
+        <v>404.3206697619563</v>
       </c>
       <c r="M16" t="n">
-        <v>615.4484751633349</v>
+        <v>615.4484751633356</v>
       </c>
       <c r="N16" t="n">
-        <v>826.9776779842257</v>
+        <v>826.9776779842266</v>
       </c>
       <c r="O16" t="n">
-        <v>1018.462190209265</v>
+        <v>1018.462190209266</v>
       </c>
       <c r="P16" t="n">
-        <v>1174.301365699971</v>
+        <v>1174.301365699972</v>
       </c>
       <c r="Q16" t="n">
-        <v>1229.127695641266</v>
+        <v>1229.127695641267</v>
       </c>
       <c r="R16" t="n">
-        <v>1173.791562624693</v>
+        <v>1222.889693091177</v>
       </c>
       <c r="S16" t="n">
-        <v>1054.060624516012</v>
+        <v>1222.889693091177</v>
       </c>
       <c r="T16" t="n">
-        <v>914.7616928624359</v>
+        <v>1083.590761437601</v>
       </c>
       <c r="U16" t="n">
-        <v>914.7616928624359</v>
+        <v>890.2488609612487</v>
       </c>
       <c r="V16" t="n">
-        <v>747.8743177679559</v>
+        <v>723.3614858667689</v>
       </c>
       <c r="W16" t="n">
-        <v>555.5658456324524</v>
+        <v>531.0530137312657</v>
       </c>
       <c r="X16" t="n">
-        <v>418.1613108749256</v>
+        <v>393.648478973739</v>
       </c>
       <c r="Y16" t="n">
-        <v>289.9740814143</v>
+        <v>265.4612495131137</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1348.758169180684</v>
+        <v>1348.758169180683</v>
       </c>
       <c r="C17" t="n">
-        <v>1136.310899369589</v>
+        <v>1136.310899369588</v>
       </c>
       <c r="D17" t="n">
-        <v>932.9734234529103</v>
+        <v>932.9734234529097</v>
       </c>
       <c r="E17" t="n">
-        <v>707.6741924151149</v>
+        <v>707.6741924151145</v>
       </c>
       <c r="F17" t="n">
-        <v>463.009490581383</v>
+        <v>463.0094905813827</v>
       </c>
       <c r="G17" t="n">
-        <v>216.408737236392</v>
+        <v>216.4087372363919</v>
       </c>
       <c r="H17" t="n">
-        <v>53.24543471019625</v>
+        <v>53.24543471019605</v>
       </c>
       <c r="I17" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J17" t="n">
-        <v>290.0653874626317</v>
+        <v>279.0147968661386</v>
       </c>
       <c r="K17" t="n">
-        <v>532.2933170730498</v>
+        <v>521.2427264765568</v>
       </c>
       <c r="L17" t="n">
-        <v>882.7684899126339</v>
+        <v>871.7178993161408</v>
       </c>
       <c r="M17" t="n">
-        <v>1278.889307393747</v>
+        <v>1267.838716797254</v>
       </c>
       <c r="N17" t="n">
-        <v>1660.148945439031</v>
+        <v>1649.098354842537</v>
       </c>
       <c r="O17" t="n">
-        <v>1967.918621072989</v>
+        <v>1956.868030476496</v>
       </c>
       <c r="P17" t="n">
-        <v>2198.435458862418</v>
+        <v>2187.384868265925</v>
       </c>
       <c r="Q17" t="n">
-        <v>2449.703047339522</v>
+        <v>2449.703047339519</v>
       </c>
       <c r="R17" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="S17" t="n">
-        <v>2510.652131493536</v>
+        <v>2510.652131493533</v>
       </c>
       <c r="T17" t="n">
-        <v>2455.852972449671</v>
+        <v>2455.852972449669</v>
       </c>
       <c r="U17" t="n">
-        <v>2370.455464567341</v>
+        <v>2370.455464567339</v>
       </c>
       <c r="V17" t="n">
-        <v>2202.96267931938</v>
+        <v>2202.962679319378</v>
       </c>
       <c r="W17" t="n">
-        <v>2009.914238033079</v>
+        <v>2009.914238033077</v>
       </c>
       <c r="X17" t="n">
-        <v>1797.37058641067</v>
+        <v>1797.370586410668</v>
       </c>
       <c r="Y17" t="n">
-        <v>1573.315219842605</v>
+        <v>1573.315219842604</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>889.439510597357</v>
+        <v>929.4690801071807</v>
       </c>
       <c r="C18" t="n">
-        <v>727.7358378383117</v>
+        <v>767.7654073481355</v>
       </c>
       <c r="D18" t="n">
-        <v>588.8972008285238</v>
+        <v>628.9267703383475</v>
       </c>
       <c r="E18" t="n">
-        <v>441.869190885395</v>
+        <v>481.8987603952187</v>
       </c>
       <c r="F18" t="n">
-        <v>307.1753928352693</v>
+        <v>347.204962345093</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4854213826322</v>
+        <v>218.4854213826321</v>
       </c>
       <c r="H18" t="n">
-        <v>118.6340891459464</v>
+        <v>118.6340891459463</v>
       </c>
       <c r="I18" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6439940710716</v>
+        <v>71.61442456124425</v>
       </c>
       <c r="K18" t="n">
-        <v>302.5228724357152</v>
+        <v>302.5228724357125</v>
       </c>
       <c r="L18" t="n">
-        <v>670.2512528350296</v>
+        <v>670.2512528350269</v>
       </c>
       <c r="M18" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.509443032271</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649308</v>
       </c>
       <c r="O18" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P18" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000484</v>
       </c>
       <c r="Q18" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R18" t="n">
-        <v>2468.785032108873</v>
+        <v>2508.814601618697</v>
       </c>
       <c r="S18" t="n">
-        <v>2316.151954881999</v>
+        <v>2356.181524391823</v>
       </c>
       <c r="T18" t="n">
-        <v>2127.502962162458</v>
+        <v>2167.532531672281</v>
       </c>
       <c r="U18" t="n">
-        <v>1909.0087591696</v>
+        <v>1949.038328679424</v>
       </c>
       <c r="V18" t="n">
-        <v>1680.613136617934</v>
+        <v>1720.642706127758</v>
       </c>
       <c r="W18" t="n">
-        <v>1439.297267851244</v>
+        <v>1479.326837361068</v>
       </c>
       <c r="X18" t="n">
-        <v>1241.380279729039</v>
+        <v>1281.409849238863</v>
       </c>
       <c r="Y18" t="n">
-        <v>1048.858953378618</v>
+        <v>1088.888522888442</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.68974180725602</v>
+        <v>50.68974180725581</v>
       </c>
       <c r="C19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="D19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="E19" t="n">
-        <v>50.56026112503406</v>
+        <v>57.56040958584421</v>
       </c>
       <c r="F19" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="G19" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="H19" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="I19" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="J19" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="K19" t="n">
-        <v>85.01971771792793</v>
+        <v>108.6872839663638</v>
       </c>
       <c r="L19" t="n">
-        <v>186.7212467851896</v>
+        <v>210.3888130336255</v>
       </c>
       <c r="M19" t="n">
-        <v>305.8686966334786</v>
+        <v>329.5362628819144</v>
       </c>
       <c r="N19" t="n">
-        <v>425.4175439012793</v>
+        <v>449.0851101497151</v>
       </c>
       <c r="O19" t="n">
-        <v>548.5892668216658</v>
+        <v>548.5892668216644</v>
       </c>
       <c r="P19" t="n">
-        <v>612.4480867592812</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="Q19" t="n">
-        <v>612.4480867592812</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="R19" t="n">
-        <v>612.4480867592812</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="S19" t="n">
-        <v>568.3557081596007</v>
+        <v>568.3557081595994</v>
       </c>
       <c r="T19" t="n">
-        <v>504.6953360150241</v>
+        <v>504.6953360150231</v>
       </c>
       <c r="U19" t="n">
-        <v>386.9919950476726</v>
+        <v>386.9919950476717</v>
       </c>
       <c r="V19" t="n">
-        <v>295.7431794621929</v>
+        <v>295.7431794621921</v>
       </c>
       <c r="W19" t="n">
-        <v>179.0732668356898</v>
+        <v>179.0732668356891</v>
       </c>
       <c r="X19" t="n">
-        <v>117.3072915871633</v>
+        <v>117.3072915871628</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.75862163553809</v>
+        <v>64.75862163553775</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1348.758169180684</v>
+        <v>1348.758169180683</v>
       </c>
       <c r="C20" t="n">
-        <v>1136.310899369589</v>
+        <v>1136.310899369588</v>
       </c>
       <c r="D20" t="n">
-        <v>932.9734234529103</v>
+        <v>932.9734234529096</v>
       </c>
       <c r="E20" t="n">
-        <v>707.6741924151149</v>
+        <v>707.6741924151145</v>
       </c>
       <c r="F20" t="n">
-        <v>463.009490581383</v>
+        <v>463.0094905813828</v>
       </c>
       <c r="G20" t="n">
-        <v>216.408737236392</v>
+        <v>216.4087372363916</v>
       </c>
       <c r="H20" t="n">
-        <v>53.24543471019628</v>
+        <v>53.24543471019606</v>
       </c>
       <c r="I20" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="J20" t="n">
-        <v>290.0653874626317</v>
+        <v>123.9516797347703</v>
       </c>
       <c r="K20" t="n">
-        <v>698.4070248009112</v>
+        <v>366.1796093451885</v>
       </c>
       <c r="L20" t="n">
-        <v>1048.882197640495</v>
+        <v>882.7684899126341</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.003015121608</v>
+        <v>1278.889307393747</v>
       </c>
       <c r="N20" t="n">
-        <v>1826.262653166892</v>
+        <v>1660.148945439031</v>
       </c>
       <c r="O20" t="n">
-        <v>2134.032328800851</v>
+        <v>1967.918621072989</v>
       </c>
       <c r="P20" t="n">
-        <v>2364.549166590279</v>
+        <v>2198.435458862418</v>
       </c>
       <c r="Q20" t="n">
         <v>2460.753637936013</v>
       </c>
       <c r="R20" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251701</v>
       </c>
       <c r="S20" t="n">
-        <v>2510.652131493536</v>
+        <v>2510.652131493534</v>
       </c>
       <c r="T20" t="n">
-        <v>2455.852972449671</v>
+        <v>2455.852972449669</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.455464567341</v>
+        <v>2370.455464567339</v>
       </c>
       <c r="V20" t="n">
-        <v>2202.96267931938</v>
+        <v>2202.962679319378</v>
       </c>
       <c r="W20" t="n">
-        <v>2009.914238033078</v>
+        <v>2009.914238033077</v>
       </c>
       <c r="X20" t="n">
-        <v>1797.37058641067</v>
+        <v>1797.370586410668</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.315219842605</v>
+        <v>1573.315219842604</v>
       </c>
     </row>
     <row r="21">
@@ -5817,49 +5817,49 @@
         <v>481.8987603952187</v>
       </c>
       <c r="F21" t="n">
-        <v>347.2049623450931</v>
+        <v>347.204962345093</v>
       </c>
       <c r="G21" t="n">
-        <v>218.4854213826322</v>
+        <v>218.4854213826321</v>
       </c>
       <c r="H21" t="n">
-        <v>118.6340891459464</v>
+        <v>118.6340891459463</v>
       </c>
       <c r="I21" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="J21" t="n">
-        <v>71.61442456124698</v>
+        <v>111.6439940710716</v>
       </c>
       <c r="K21" t="n">
-        <v>302.5228724357152</v>
+        <v>342.5524419455398</v>
       </c>
       <c r="L21" t="n">
-        <v>670.2512528350296</v>
+        <v>710.2808223448542</v>
       </c>
       <c r="M21" t="n">
-        <v>1157.509443032274</v>
+        <v>1197.539012542098</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.058810649311</v>
+        <v>1711.088380159135</v>
       </c>
       <c r="O21" t="n">
-        <v>2065.347920439185</v>
+        <v>2105.37748994901</v>
       </c>
       <c r="P21" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251701</v>
       </c>
       <c r="R21" t="n">
-        <v>2468.785032108873</v>
+        <v>2508.814601618697</v>
       </c>
       <c r="S21" t="n">
-        <v>2316.151954881999</v>
+        <v>2356.181524391823</v>
       </c>
       <c r="T21" t="n">
-        <v>2127.502962162458</v>
+        <v>2167.532531672281</v>
       </c>
       <c r="U21" t="n">
         <v>1949.038328679424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.68974180725605</v>
+        <v>50.68974180725582</v>
       </c>
       <c r="C22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="D22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="E22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="F22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="G22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="H22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503401</v>
       </c>
       <c r="I22" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="J22" t="n">
-        <v>50.56026112503406</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="K22" t="n">
-        <v>85.01971771792793</v>
+        <v>108.6872839663638</v>
       </c>
       <c r="L22" t="n">
-        <v>186.7212467851896</v>
+        <v>210.3888130336255</v>
       </c>
       <c r="M22" t="n">
-        <v>305.8686966334786</v>
+        <v>329.5362628819144</v>
       </c>
       <c r="N22" t="n">
-        <v>449.0851101497167</v>
+        <v>449.0851101497151</v>
       </c>
       <c r="O22" t="n">
-        <v>548.589266821666</v>
+        <v>548.5892668216644</v>
       </c>
       <c r="P22" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="Q22" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="R22" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="S22" t="n">
-        <v>568.3557081596009</v>
+        <v>568.3557081595994</v>
       </c>
       <c r="T22" t="n">
-        <v>504.6953360150243</v>
+        <v>504.6953360150231</v>
       </c>
       <c r="U22" t="n">
-        <v>386.9919950476727</v>
+        <v>386.9919950476717</v>
       </c>
       <c r="V22" t="n">
-        <v>295.743179462193</v>
+        <v>295.7431794621921</v>
       </c>
       <c r="W22" t="n">
-        <v>179.0732668356899</v>
+        <v>179.0732668356891</v>
       </c>
       <c r="X22" t="n">
-        <v>117.3072915871633</v>
+        <v>117.3072915871628</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.75862163553815</v>
+        <v>64.75862163553775</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1136.310899369589</v>
       </c>
       <c r="D23" t="n">
-        <v>932.9734234529105</v>
+        <v>932.9734234529103</v>
       </c>
       <c r="E23" t="n">
-        <v>707.6741924151152</v>
+        <v>707.674192415115</v>
       </c>
       <c r="F23" t="n">
-        <v>463.0094905813831</v>
+        <v>463.0094905813833</v>
       </c>
       <c r="G23" t="n">
-        <v>216.4087372363921</v>
+        <v>216.4087372363917</v>
       </c>
       <c r="H23" t="n">
-        <v>53.24543471019629</v>
+        <v>53.24543471019608</v>
       </c>
       <c r="I23" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J23" t="n">
         <v>123.9516797347704</v>
       </c>
       <c r="K23" t="n">
-        <v>366.1796093451885</v>
+        <v>532.2933170730499</v>
       </c>
       <c r="L23" t="n">
-        <v>882.7684899126339</v>
+        <v>1037.831607044003</v>
       </c>
       <c r="M23" t="n">
-        <v>1278.889307393747</v>
+        <v>1433.952424525116</v>
       </c>
       <c r="N23" t="n">
-        <v>1815.212062570402</v>
+        <v>1815.2120625704</v>
       </c>
       <c r="O23" t="n">
-        <v>2122.981738204361</v>
+        <v>2122.981738204359</v>
       </c>
       <c r="P23" t="n">
-        <v>2353.498575993789</v>
+        <v>2353.498575993787</v>
       </c>
       <c r="Q23" t="n">
-        <v>2449.703047339523</v>
+        <v>2449.703047339521</v>
       </c>
       <c r="R23" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.652131493537</v>
+        <v>2510.652131493535</v>
       </c>
       <c r="T23" t="n">
-        <v>2455.852972449672</v>
+        <v>2455.85297244967</v>
       </c>
       <c r="U23" t="n">
-        <v>2370.455464567341</v>
+        <v>2370.45546456734</v>
       </c>
       <c r="V23" t="n">
-        <v>2202.96267931938</v>
+        <v>2202.962679319379</v>
       </c>
       <c r="W23" t="n">
-        <v>2009.914238033079</v>
+        <v>2009.914238033078</v>
       </c>
       <c r="X23" t="n">
-        <v>1797.37058641067</v>
+        <v>1797.370586410669</v>
       </c>
       <c r="Y23" t="n">
-        <v>1573.315219842606</v>
+        <v>1573.315219842605</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>929.4690801071807</v>
+        <v>889.4395105973556</v>
       </c>
       <c r="C24" t="n">
-        <v>767.7654073481355</v>
+        <v>727.7358378383103</v>
       </c>
       <c r="D24" t="n">
-        <v>628.9267703383475</v>
+        <v>588.8972008285224</v>
       </c>
       <c r="E24" t="n">
-        <v>481.8987603952187</v>
+        <v>441.8691908853936</v>
       </c>
       <c r="F24" t="n">
-        <v>347.2049623450931</v>
+        <v>307.175392835268</v>
       </c>
       <c r="G24" t="n">
         <v>218.4854213826322</v>
       </c>
       <c r="H24" t="n">
-        <v>118.6340891459464</v>
+        <v>118.6340891459463</v>
       </c>
       <c r="I24" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J24" t="n">
-        <v>71.61442456124698</v>
+        <v>71.61442456124561</v>
       </c>
       <c r="K24" t="n">
-        <v>302.5228724357152</v>
+        <v>302.5228724357139</v>
       </c>
       <c r="L24" t="n">
-        <v>670.2512528350296</v>
+        <v>670.2512528350283</v>
       </c>
       <c r="M24" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.509443032272</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649309</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439184</v>
       </c>
       <c r="P24" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000486</v>
       </c>
       <c r="Q24" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.814601618697</v>
+        <v>2468.785032108872</v>
       </c>
       <c r="S24" t="n">
-        <v>2356.181524391823</v>
+        <v>2316.151954881998</v>
       </c>
       <c r="T24" t="n">
-        <v>2167.532531672281</v>
+        <v>2127.502962162456</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.038328679424</v>
+        <v>1909.008759169599</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.642706127758</v>
+        <v>1680.613136617933</v>
       </c>
       <c r="W24" t="n">
-        <v>1479.326837361068</v>
+        <v>1439.297267851243</v>
       </c>
       <c r="X24" t="n">
-        <v>1281.409849238863</v>
+        <v>1241.380279729038</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.888522888442</v>
+        <v>1048.858953378616</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.68974180725605</v>
+        <v>50.68974180725584</v>
       </c>
       <c r="C25" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="D25" t="n">
-        <v>66.64820635478569</v>
+        <v>66.64820635478583</v>
       </c>
       <c r="E25" t="n">
-        <v>74.2278273734715</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="F25" t="n">
-        <v>74.2278273734715</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="G25" t="n">
-        <v>74.2278273734715</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="H25" t="n">
-        <v>74.2278273734715</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="I25" t="n">
-        <v>74.2278273734715</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="J25" t="n">
-        <v>74.2278273734715</v>
+        <v>74.22782737346991</v>
       </c>
       <c r="K25" t="n">
-        <v>108.6872839663654</v>
+        <v>108.6872839663638</v>
       </c>
       <c r="L25" t="n">
-        <v>210.3888130336271</v>
+        <v>210.3888130336255</v>
       </c>
       <c r="M25" t="n">
-        <v>329.536262881916</v>
+        <v>329.5362628819144</v>
       </c>
       <c r="N25" t="n">
-        <v>449.0851101497167</v>
+        <v>449.0851101497151</v>
       </c>
       <c r="O25" t="n">
-        <v>548.589266821666</v>
+        <v>548.5892668216644</v>
       </c>
       <c r="P25" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="Q25" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="R25" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592798</v>
       </c>
       <c r="S25" t="n">
-        <v>568.3557081596009</v>
+        <v>568.3557081595994</v>
       </c>
       <c r="T25" t="n">
-        <v>504.6953360150243</v>
+        <v>504.6953360150231</v>
       </c>
       <c r="U25" t="n">
-        <v>386.9919950476727</v>
+        <v>386.9919950476717</v>
       </c>
       <c r="V25" t="n">
-        <v>295.743179462193</v>
+        <v>295.7431794621921</v>
       </c>
       <c r="W25" t="n">
-        <v>179.0732668356899</v>
+        <v>179.0732668356891</v>
       </c>
       <c r="X25" t="n">
-        <v>117.3072915871633</v>
+        <v>117.3072915871628</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.75862163553815</v>
+        <v>64.75862163553778</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1657.840508752828</v>
+        <v>1657.840508752827</v>
       </c>
       <c r="C26" t="n">
-        <v>1403.088672910909</v>
+        <v>1403.088672910908</v>
       </c>
       <c r="D26" t="n">
-        <v>1157.446630963407</v>
+        <v>1157.446630963405</v>
       </c>
       <c r="E26" t="n">
-        <v>889.842833894787</v>
+        <v>889.8428338947858</v>
       </c>
       <c r="F26" t="n">
-        <v>602.8735660302308</v>
+        <v>602.8735660302298</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9682466544156</v>
+        <v>313.9682466544145</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5003780973957</v>
+        <v>108.5003780973952</v>
       </c>
       <c r="I26" t="n">
         <v>63.51063848140879</v>
       </c>
       <c r="J26" t="n">
-        <v>261.5530596521953</v>
+        <v>261.5530596521958</v>
       </c>
       <c r="K26" t="n">
-        <v>628.4319918236642</v>
+        <v>628.4319918236645</v>
       </c>
       <c r="L26" t="n">
         <v>1103.558167224299</v>
       </c>
       <c r="M26" t="n">
-        <v>1624.329987266462</v>
+        <v>1624.329987266463</v>
       </c>
       <c r="N26" t="n">
         <v>2130.240627872797</v>
       </c>
       <c r="O26" t="n">
-        <v>2562.661306067806</v>
+        <v>2562.661306067807</v>
       </c>
       <c r="P26" t="n">
-        <v>2917.829146418285</v>
+        <v>2917.829146418286</v>
       </c>
       <c r="Q26" t="n">
         <v>3138.684620325069</v>
@@ -6257,7 +6257,7 @@
         <v>3018.76270820676</v>
       </c>
       <c r="U26" t="n">
-        <v>2891.060634293606</v>
+        <v>2891.060634293605</v>
       </c>
       <c r="V26" t="n">
         <v>2681.26328301482</v>
@@ -6269,7 +6269,7 @@
         <v>2191.062058044462</v>
       </c>
       <c r="Y26" t="n">
-        <v>1924.702125445574</v>
+        <v>1924.702125445573</v>
       </c>
     </row>
     <row r="27">
@@ -6327,10 +6327,10 @@
         <v>2580.993003117902</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.764978975072</v>
+        <v>2521.764978975073</v>
       </c>
       <c r="S27" t="n">
-        <v>2369.131901748198</v>
+        <v>2369.131901748199</v>
       </c>
       <c r="T27" t="n">
         <v>2180.482909028656</v>
@@ -6385,16 +6385,16 @@
         <v>129.8199973599552</v>
       </c>
       <c r="K28" t="n">
-        <v>164.2794539528491</v>
+        <v>288.9304565138997</v>
       </c>
       <c r="L28" t="n">
-        <v>265.9809830201108</v>
+        <v>390.6319855811614</v>
       </c>
       <c r="M28" t="n">
-        <v>509.7794354294504</v>
+        <v>575.0961913274833</v>
       </c>
       <c r="N28" t="n">
-        <v>753.9792852583017</v>
+        <v>819.2960411563347</v>
       </c>
       <c r="O28" t="n">
         <v>918.800197828284</v>
@@ -6440,19 +6440,19 @@
         <v>1657.840508752828</v>
       </c>
       <c r="C29" t="n">
-        <v>1403.088672910909</v>
+        <v>1403.088672910908</v>
       </c>
       <c r="D29" t="n">
         <v>1157.446630963406</v>
       </c>
       <c r="E29" t="n">
-        <v>889.8428338947867</v>
+        <v>889.8428338947861</v>
       </c>
       <c r="F29" t="n">
-        <v>602.8735660302307</v>
+        <v>602.8735660302302</v>
       </c>
       <c r="G29" t="n">
-        <v>313.9682466544155</v>
+        <v>313.968246654415</v>
       </c>
       <c r="H29" t="n">
         <v>108.5003780973951</v>
@@ -6488,25 +6488,25 @@
         <v>3175.531924070439</v>
       </c>
       <c r="S29" t="n">
-        <v>3115.866433281449</v>
+        <v>3115.866433281448</v>
       </c>
       <c r="T29" t="n">
-        <v>3018.76270820676</v>
+        <v>3018.762708206759</v>
       </c>
       <c r="U29" t="n">
-        <v>2891.060634293606</v>
+        <v>2891.060634293605</v>
       </c>
       <c r="V29" t="n">
         <v>2681.26328301482</v>
       </c>
       <c r="W29" t="n">
-        <v>2445.910275697695</v>
+        <v>2445.910275697694</v>
       </c>
       <c r="X29" t="n">
         <v>2191.062058044462</v>
       </c>
       <c r="Y29" t="n">
-        <v>1924.702125445574</v>
+        <v>1924.702125445573</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>63.51063848140879</v>
       </c>
       <c r="J30" t="n">
-        <v>124.5943714274465</v>
+        <v>124.5943714274463</v>
       </c>
       <c r="K30" t="n">
-        <v>355.5028193019148</v>
+        <v>355.5028193019145</v>
       </c>
       <c r="L30" t="n">
-        <v>723.2311997012291</v>
+        <v>723.2311997012289</v>
       </c>
       <c r="M30" t="n">
         <v>1210.489389898473</v>
@@ -6622,19 +6622,19 @@
         <v>129.8199973599552</v>
       </c>
       <c r="K31" t="n">
-        <v>288.9304565138997</v>
+        <v>164.2794539528491</v>
       </c>
       <c r="L31" t="n">
-        <v>390.6319855811614</v>
+        <v>265.9809830201108</v>
       </c>
       <c r="M31" t="n">
-        <v>634.4304379905009</v>
+        <v>509.7794354294504</v>
       </c>
       <c r="N31" t="n">
-        <v>819.2960411563345</v>
+        <v>694.6450385952838</v>
       </c>
       <c r="O31" t="n">
-        <v>1043.451200389334</v>
+        <v>918.8001978282838</v>
       </c>
       <c r="P31" t="n">
         <v>1107.31002032695</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1571.981551510789</v>
+        <v>1571.981551510788</v>
       </c>
       <c r="C32" t="n">
-        <v>1328.981360654512</v>
+        <v>1328.981360654511</v>
       </c>
       <c r="D32" t="n">
         <v>1095.090963692651</v>
       </c>
       <c r="E32" t="n">
-        <v>839.238811609674</v>
+        <v>839.2388116096735</v>
       </c>
       <c r="F32" t="n">
-        <v>564.0211887307602</v>
+        <v>564.0211887307596</v>
       </c>
       <c r="G32" t="n">
-        <v>286.8675143405871</v>
+        <v>286.8675143405862</v>
       </c>
       <c r="H32" t="n">
-        <v>93.15129076920957</v>
+        <v>93.1512907692093</v>
       </c>
       <c r="I32" t="n">
-        <v>59.91319613886529</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="J32" t="n">
-        <v>269.4734045600801</v>
+        <v>269.4734045600803</v>
       </c>
       <c r="K32" t="n">
-        <v>647.8701239819766</v>
+        <v>647.870123981977</v>
       </c>
       <c r="L32" t="n">
-        <v>1134.514086633039</v>
+        <v>998.3452968215611</v>
       </c>
       <c r="M32" t="n">
-        <v>1666.80369392563</v>
+        <v>1394.466114302674</v>
       </c>
       <c r="N32" t="n">
-        <v>2184.232121782392</v>
+        <v>1911.894542159436</v>
       </c>
       <c r="O32" t="n">
-        <v>2620.573406812305</v>
+        <v>2348.235827189345</v>
       </c>
       <c r="P32" t="n">
-        <v>2851.090244601733</v>
+        <v>2714.921454790252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2947.294715947467</v>
+        <v>2947.294715947464</v>
       </c>
       <c r="R32" t="n">
-        <v>2995.659806943264</v>
+        <v>2995.659806943262</v>
       </c>
       <c r="S32" t="n">
-        <v>2947.745961139915</v>
+        <v>2947.745961139913</v>
       </c>
       <c r="T32" t="n">
-        <v>2862.393881050868</v>
+        <v>2862.393881050866</v>
       </c>
       <c r="U32" t="n">
-        <v>2746.443452123357</v>
+        <v>2746.443452123354</v>
       </c>
       <c r="V32" t="n">
-        <v>2548.397745830213</v>
+        <v>2548.397745830212</v>
       </c>
       <c r="W32" t="n">
-        <v>2324.79638349873</v>
+        <v>2324.796383498729</v>
       </c>
       <c r="X32" t="n">
-        <v>2081.699810831139</v>
+        <v>2081.699810831138</v>
       </c>
       <c r="Y32" t="n">
-        <v>1827.091523217893</v>
+        <v>1827.091523217891</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>127.9870241597776</v>
       </c>
       <c r="I33" t="n">
-        <v>59.91319613886529</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="J33" t="n">
-        <v>120.9969290849029</v>
+        <v>120.9969290849028</v>
       </c>
       <c r="K33" t="n">
-        <v>351.9053769593701</v>
+        <v>351.905376959371</v>
       </c>
       <c r="L33" t="n">
-        <v>719.6337573586845</v>
+        <v>719.6337573586854</v>
       </c>
       <c r="M33" t="n">
-        <v>1206.891947555929</v>
+        <v>1206.89194755593</v>
       </c>
       <c r="N33" t="n">
         <v>1720.441315172966</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.7510272971531</v>
+        <v>186.7510272971515</v>
       </c>
       <c r="C34" t="n">
-        <v>156.0686255697491</v>
+        <v>156.0686255697477</v>
       </c>
       <c r="D34" t="n">
-        <v>141.9303002084275</v>
+        <v>141.9303002084263</v>
       </c>
       <c r="E34" t="n">
-        <v>128.854853780662</v>
+        <v>128.8548537806611</v>
       </c>
       <c r="F34" t="n">
-        <v>115.3077666173548</v>
+        <v>115.3077666173541</v>
       </c>
       <c r="G34" t="n">
-        <v>85.32909673271874</v>
+        <v>85.32909673271823</v>
       </c>
       <c r="H34" t="n">
-        <v>64.95679837739047</v>
+        <v>64.9567983773902</v>
       </c>
       <c r="I34" t="n">
-        <v>59.91319613886529</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7403422678395</v>
+        <v>137.7403422678397</v>
       </c>
       <c r="K34" t="n">
-        <v>264.2388783593113</v>
+        <v>172.1997988607336</v>
       </c>
       <c r="L34" t="n">
-        <v>365.940407426573</v>
+        <v>410.070117739474</v>
       </c>
       <c r="M34" t="n">
-        <v>621.2566470863403</v>
+        <v>529.2175675877629</v>
       </c>
       <c r="N34" t="n">
-        <v>740.8054943541409</v>
+        <v>740.805494354137</v>
       </c>
       <c r="O34" t="n">
-        <v>840.3096510260903</v>
+        <v>840.3096510260863</v>
       </c>
       <c r="P34" t="n">
-        <v>904.1684709637057</v>
+        <v>904.1684709637017</v>
       </c>
       <c r="Q34" t="n">
-        <v>1003.183235163389</v>
+        <v>1003.183235163385</v>
       </c>
       <c r="R34" t="n">
-        <v>992.9327406106348</v>
+        <v>992.9327406106313</v>
       </c>
       <c r="S34" t="n">
-        <v>918.2874409657722</v>
+        <v>918.287440965769</v>
       </c>
       <c r="T34" t="n">
-        <v>824.0741477760137</v>
+        <v>824.0741477760106</v>
       </c>
       <c r="U34" t="n">
-        <v>675.81788576348</v>
+        <v>675.8178857634772</v>
       </c>
       <c r="V34" t="n">
-        <v>554.0161491328183</v>
+        <v>554.0161491328157</v>
       </c>
       <c r="W34" t="n">
-        <v>406.7933154611331</v>
+        <v>406.7933154611308</v>
       </c>
       <c r="X34" t="n">
-        <v>314.4744191674246</v>
+        <v>314.4744191674224</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.3728281706173</v>
+        <v>231.3728281706154</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D35" t="n">
-        <v>947.1335432795149</v>
+        <v>947.1335432795152</v>
       </c>
       <c r="E35" t="n">
-        <v>719.1656742743978</v>
+        <v>719.165674274398</v>
       </c>
       <c r="F35" t="n">
-        <v>471.8323344733449</v>
+        <v>471.8323344733445</v>
       </c>
       <c r="G35" t="n">
         <v>222.5629431610319</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751428</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I35" t="n">
-        <v>51.37719111503046</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J35" t="n">
-        <v>288.2667853808563</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K35" t="n">
-        <v>693.9928906473639</v>
+        <v>403.8221144638349</v>
       </c>
       <c r="L35" t="n">
-        <v>1044.468063486948</v>
+        <v>754.2972873034189</v>
       </c>
       <c r="M35" t="n">
-        <v>1440.588880968061</v>
+        <v>1150.418104784532</v>
       </c>
       <c r="N35" t="n">
-        <v>1821.848519013344</v>
+        <v>1531.677742829816</v>
       </c>
       <c r="O35" t="n">
-        <v>2129.618194647303</v>
+        <v>1839.447418463774</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.135032436732</v>
+        <v>2233.462431909292</v>
       </c>
       <c r="Q35" t="n">
         <v>2493.165078911115</v>
       </c>
       <c r="R35" t="n">
-        <v>2568.859555751523</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="S35" t="n">
         <v>2548.829993026035</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.2860100971774</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C36" t="n">
-        <v>768.5823373381322</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D36" t="n">
-        <v>629.7437003283444</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852156</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350899</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G36" t="n">
         <v>219.3023513726286</v>
@@ -7011,19 +7011,19 @@
         <v>119.4510191359428</v>
       </c>
       <c r="I36" t="n">
-        <v>51.37719111503046</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J36" t="n">
-        <v>112.4609240610673</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K36" t="n">
-        <v>343.3693719355355</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348499</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.355942532094</v>
+        <v>1198.355942532095</v>
       </c>
       <c r="N36" t="n">
         <v>1711.905310149131</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134971</v>
+        <v>56.26969657134978</v>
       </c>
       <c r="C37" t="n">
-        <v>53.47157792180612</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="D37" t="n">
-        <v>53.47157792180612</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="E37" t="n">
-        <v>53.47157792180612</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47157792180612</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G37" t="n">
-        <v>51.37719111503046</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="H37" t="n">
-        <v>51.37719111503046</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I37" t="n">
-        <v>51.37719111503046</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J37" t="n">
-        <v>51.37719111503046</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K37" t="n">
-        <v>85.83664770792433</v>
+        <v>85.83664770792436</v>
       </c>
       <c r="L37" t="n">
-        <v>187.538176775186</v>
+        <v>187.5381767751861</v>
       </c>
       <c r="M37" t="n">
-        <v>306.6856266234749</v>
+        <v>306.685626623475</v>
       </c>
       <c r="N37" t="n">
-        <v>426.2344738912756</v>
+        <v>476.0141686523833</v>
       </c>
       <c r="O37" t="n">
-        <v>525.7386305632249</v>
+        <v>575.5183253243326</v>
       </c>
       <c r="P37" t="n">
-        <v>589.5974505008403</v>
+        <v>639.377145261948</v>
       </c>
       <c r="Q37" t="n">
-        <v>622.094269128491</v>
+        <v>639.377145261948</v>
       </c>
       <c r="R37" t="n">
-        <v>639.3771452619478</v>
+        <v>639.377145261948</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949457</v>
+        <v>592.6161286949459</v>
       </c>
       <c r="T37" t="n">
-        <v>526.2871185830476</v>
+        <v>526.2871185830478</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483744</v>
+        <v>405.9151396483746</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955731</v>
+        <v>311.9976860955733</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017483</v>
+        <v>192.6591355017485</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859002</v>
+        <v>128.2245222859003</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.00721436695341</v>
+        <v>73.00721436695351</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1368.255564941933</v>
+        <v>1368.255564941932</v>
       </c>
       <c r="C38" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D38" t="n">
-        <v>947.1335432795158</v>
+        <v>947.1335432795149</v>
       </c>
       <c r="E38" t="n">
-        <v>719.1656742743987</v>
+        <v>719.165674274398</v>
       </c>
       <c r="F38" t="n">
-        <v>471.8323344733451</v>
+        <v>471.8323344733445</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610317</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751434</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J38" t="n">
-        <v>124.7686097247668</v>
+        <v>161.5941848534172</v>
       </c>
       <c r="K38" t="n">
-        <v>366.9965393351849</v>
+        <v>403.8221144638354</v>
       </c>
       <c r="L38" t="n">
-        <v>717.471712174769</v>
+        <v>754.2972873034194</v>
       </c>
       <c r="M38" t="n">
-        <v>1113.592529655882</v>
+        <v>1150.418104784532</v>
       </c>
       <c r="N38" t="n">
         <v>1531.677742829816</v>
@@ -7199,25 +7199,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T38" t="n">
         <v>2491.362196014849</v>
       </c>
       <c r="U38" t="n">
-        <v>2403.296050165198</v>
+        <v>2403.296050165197</v>
       </c>
       <c r="V38" t="n">
-        <v>2233.134626949915</v>
+        <v>2233.134626949914</v>
       </c>
       <c r="W38" t="n">
-        <v>2037.417547696293</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X38" t="n">
-        <v>1822.205258106562</v>
+        <v>1822.205258106561</v>
       </c>
       <c r="Y38" t="n">
-        <v>1595.481253571176</v>
+        <v>1595.481253571175</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C39" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D39" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E39" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F39" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G39" t="n">
-        <v>219.3023513726297</v>
+        <v>219.3023513726286</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4510191359439</v>
+        <v>119.4510191359428</v>
       </c>
       <c r="I39" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J39" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610682</v>
       </c>
       <c r="K39" t="n">
-        <v>343.3693719355362</v>
+        <v>343.3693719355364</v>
       </c>
       <c r="L39" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M39" t="n">
         <v>1198.355942532095</v>
@@ -7275,28 +7275,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.631531608694</v>
+        <v>2509.631531608693</v>
       </c>
       <c r="S39" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W39" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228859</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878438</v>
       </c>
     </row>
     <row r="40">
@@ -7324,34 +7324,34 @@
         <v>51.37719111503048</v>
       </c>
       <c r="H40" t="n">
-        <v>51.37719111503048</v>
+        <v>58.73968734158425</v>
       </c>
       <c r="I40" t="n">
-        <v>51.37719111503048</v>
+        <v>81.12583863221671</v>
       </c>
       <c r="J40" t="n">
-        <v>51.37719111503048</v>
+        <v>101.1568858761381</v>
       </c>
       <c r="K40" t="n">
-        <v>85.83664770792436</v>
+        <v>135.616342469032</v>
       </c>
       <c r="L40" t="n">
-        <v>187.5381767751861</v>
+        <v>237.3178715362937</v>
       </c>
       <c r="M40" t="n">
-        <v>306.685626623475</v>
+        <v>356.4653213845826</v>
       </c>
       <c r="N40" t="n">
-        <v>426.2344738912757</v>
+        <v>476.0141686523833</v>
       </c>
       <c r="O40" t="n">
-        <v>525.738630563225</v>
+        <v>575.5183253243326</v>
       </c>
       <c r="P40" t="n">
-        <v>589.5974505008404</v>
+        <v>639.377145261948</v>
       </c>
       <c r="Q40" t="n">
-        <v>622.0942691284913</v>
+        <v>639.377145261948</v>
       </c>
       <c r="R40" t="n">
         <v>639.377145261948</v>
@@ -7388,13 +7388,13 @@
         <v>1368.255564941932</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.139657163515</v>
+        <v>1153.139657163516</v>
       </c>
       <c r="D41" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795153</v>
       </c>
       <c r="E41" t="n">
-        <v>719.165674274398</v>
+        <v>719.1656742743982</v>
       </c>
       <c r="F41" t="n">
         <v>471.8323344733445</v>
@@ -7403,31 +7403,31 @@
         <v>222.5629431610319</v>
       </c>
       <c r="H41" t="n">
-        <v>56.73100266751432</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J41" t="n">
-        <v>288.2667853808563</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K41" t="n">
-        <v>693.9928906473638</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.468063486948</v>
+        <v>717.471712174769</v>
       </c>
       <c r="M41" t="n">
-        <v>1440.588880968061</v>
+        <v>1277.090705311971</v>
       </c>
       <c r="N41" t="n">
-        <v>1821.848519013344</v>
+        <v>1658.350343357255</v>
       </c>
       <c r="O41" t="n">
-        <v>2129.618194647303</v>
+        <v>1966.120018991214</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.135032436732</v>
+        <v>2233.462431909293</v>
       </c>
       <c r="Q41" t="n">
         <v>2493.165078911115</v>
@@ -7436,7 +7436,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S41" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T41" t="n">
         <v>2491.362196014849</v>
@@ -7445,10 +7445,10 @@
         <v>2403.296050165197</v>
       </c>
       <c r="V41" t="n">
-        <v>2233.134626949914</v>
+        <v>2233.134626949915</v>
       </c>
       <c r="W41" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X41" t="n">
         <v>1822.205258106561</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971778</v>
       </c>
       <c r="C42" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381327</v>
       </c>
       <c r="D42" t="n">
-        <v>629.7437003283439</v>
+        <v>629.7437003283449</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7156903852151</v>
+        <v>482.715690385216</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350903</v>
       </c>
       <c r="G42" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726292</v>
       </c>
       <c r="H42" t="n">
         <v>119.4510191359428</v>
@@ -7491,49 +7491,49 @@
         <v>112.4609240610681</v>
       </c>
       <c r="K42" t="n">
-        <v>343.3693719355355</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L42" t="n">
-        <v>711.0977523348499</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.355942532094</v>
+        <v>1198.355942532095</v>
       </c>
       <c r="N42" t="n">
-        <v>1711.905310149131</v>
+        <v>1711.905310149132</v>
       </c>
       <c r="O42" t="n">
-        <v>2106.194419939005</v>
+        <v>2106.194419939006</v>
       </c>
       <c r="P42" t="n">
-        <v>2409.967073500307</v>
+        <v>2409.967073500308</v>
       </c>
       <c r="Q42" t="n">
-        <v>2568.859555751523</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S42" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W42" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.1753097645741</v>
+        <v>54.17530976457412</v>
       </c>
       <c r="C43" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="D43" t="n">
-        <v>64.84960427301019</v>
+        <v>64.84960427301016</v>
       </c>
       <c r="E43" t="n">
-        <v>79.36374507376823</v>
+        <v>79.36374507376817</v>
       </c>
       <c r="F43" t="n">
-        <v>93.41563078962183</v>
+        <v>93.41563078962174</v>
       </c>
       <c r="G43" t="n">
-        <v>91.32124398284614</v>
+        <v>91.32124398284603</v>
       </c>
       <c r="H43" t="n">
-        <v>98.68374020939991</v>
+        <v>91.32124398284603</v>
       </c>
       <c r="I43" t="n">
-        <v>98.68374020939991</v>
+        <v>91.32124398284603</v>
       </c>
       <c r="J43" t="n">
-        <v>99.06249906936247</v>
+        <v>91.32124398284603</v>
       </c>
       <c r="K43" t="n">
-        <v>133.5219556622563</v>
+        <v>125.7807005757399</v>
       </c>
       <c r="L43" t="n">
-        <v>235.223484729518</v>
+        <v>227.4822296430016</v>
       </c>
       <c r="M43" t="n">
-        <v>354.370934577807</v>
+        <v>346.6296794912905</v>
       </c>
       <c r="N43" t="n">
-        <v>473.9197818456076</v>
+        <v>466.1785267590912</v>
       </c>
       <c r="O43" t="n">
-        <v>573.423938517557</v>
+        <v>565.6826834310405</v>
       </c>
       <c r="P43" t="n">
-        <v>637.2827584551724</v>
+        <v>629.5415033686559</v>
       </c>
       <c r="Q43" t="n">
-        <v>637.2827584551724</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="R43" t="n">
-        <v>637.2827584551724</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="S43" t="n">
-        <v>590.5217418881703</v>
+        <v>590.5217418881706</v>
       </c>
       <c r="T43" t="n">
-        <v>524.192731776272</v>
+        <v>524.1927317762724</v>
       </c>
       <c r="U43" t="n">
-        <v>403.8207528415988</v>
+        <v>403.8207528415991</v>
       </c>
       <c r="V43" t="n">
-        <v>309.9032992887975</v>
+        <v>309.9032992887977</v>
       </c>
       <c r="W43" t="n">
-        <v>190.5647486949728</v>
+        <v>190.5647486949729</v>
       </c>
       <c r="X43" t="n">
-        <v>126.1301354791246</v>
+        <v>126.1301354791247</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.91282756017782</v>
+        <v>70.91282756017787</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D44" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795154</v>
       </c>
       <c r="E44" t="n">
-        <v>719.165674274398</v>
+        <v>719.1656742743983</v>
       </c>
       <c r="F44" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733449</v>
       </c>
       <c r="G44" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610323</v>
       </c>
       <c r="H44" t="n">
-        <v>56.73100266751438</v>
+        <v>56.73100266751431</v>
       </c>
       <c r="I44" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>124.7686097247668</v>
+        <v>288.2667853808563</v>
       </c>
       <c r="K44" t="n">
-        <v>366.9965393351849</v>
+        <v>693.9928906473639</v>
       </c>
       <c r="L44" t="n">
-        <v>717.471712174769</v>
+        <v>1081.293638615598</v>
       </c>
       <c r="M44" t="n">
-        <v>1113.592529655882</v>
+        <v>1477.414456096711</v>
       </c>
       <c r="N44" t="n">
-        <v>1494.852167701166</v>
+        <v>1858.674094141995</v>
       </c>
       <c r="O44" t="n">
-        <v>1839.447418463775</v>
+        <v>2166.443769775954</v>
       </c>
       <c r="P44" t="n">
-        <v>2233.462431909293</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q44" t="n">
         <v>2493.165078911115</v>
@@ -7673,16 +7673,16 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S44" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T44" t="n">
         <v>2491.362196014849</v>
       </c>
       <c r="U44" t="n">
-        <v>2403.296050165198</v>
+        <v>2403.296050165197</v>
       </c>
       <c r="V44" t="n">
-        <v>2233.134626949915</v>
+        <v>2233.134626949914</v>
       </c>
       <c r="W44" t="n">
         <v>2037.417547696292</v>
@@ -7737,10 +7737,10 @@
         <v>1198.355942532095</v>
       </c>
       <c r="N45" t="n">
-        <v>1711.905310149131</v>
+        <v>1711.905310149132</v>
       </c>
       <c r="O45" t="n">
-        <v>2106.194419939005</v>
+        <v>2106.194419939006</v>
       </c>
       <c r="P45" t="n">
         <v>2409.967073500307</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.17530976457415</v>
+        <v>54.17530976457407</v>
       </c>
       <c r="C46" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="D46" t="n">
-        <v>51.37719111503048</v>
+        <v>64.84960427301021</v>
       </c>
       <c r="E46" t="n">
-        <v>57.35635264309913</v>
+        <v>79.36374507376829</v>
       </c>
       <c r="F46" t="n">
-        <v>71.40823835895267</v>
+        <v>93.41563078962191</v>
       </c>
       <c r="G46" t="n">
-        <v>69.31385155217693</v>
+        <v>91.32124398284625</v>
       </c>
       <c r="H46" t="n">
-        <v>76.67634777873064</v>
+        <v>98.68374020940006</v>
       </c>
       <c r="I46" t="n">
-        <v>99.06249906936304</v>
+        <v>99.06249906936225</v>
       </c>
       <c r="J46" t="n">
-        <v>99.06249906936304</v>
+        <v>99.06249906936225</v>
       </c>
       <c r="K46" t="n">
-        <v>133.5219556622569</v>
+        <v>133.5219556622561</v>
       </c>
       <c r="L46" t="n">
-        <v>235.2234847295186</v>
+        <v>235.2234847295178</v>
       </c>
       <c r="M46" t="n">
-        <v>354.3709345778075</v>
+        <v>354.3709345778067</v>
       </c>
       <c r="N46" t="n">
-        <v>473.9197818456082</v>
+        <v>473.9197818456074</v>
       </c>
       <c r="O46" t="n">
-        <v>573.4239385175575</v>
+        <v>573.4239385175567</v>
       </c>
       <c r="P46" t="n">
-        <v>637.2827584551729</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="Q46" t="n">
-        <v>637.2827584551729</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="R46" t="n">
-        <v>637.2827584551729</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="S46" t="n">
-        <v>590.5217418881707</v>
+        <v>590.52174188817</v>
       </c>
       <c r="T46" t="n">
-        <v>524.1927317762725</v>
+        <v>524.1927317762719</v>
       </c>
       <c r="U46" t="n">
-        <v>403.8207528415992</v>
+        <v>403.8207528415987</v>
       </c>
       <c r="V46" t="n">
-        <v>309.9032992887978</v>
+        <v>309.9032992887974</v>
       </c>
       <c r="W46" t="n">
-        <v>190.564748694973</v>
+        <v>190.5647486949726</v>
       </c>
       <c r="X46" t="n">
-        <v>126.1301354791248</v>
+        <v>126.1301354791245</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.91282756017793</v>
+        <v>70.91282756017776</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>316.0596115830942</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7991,7 +7991,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>316.9850085863835</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8055,25 +8055,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>306.8906792234663</v>
+        <v>595.819074544836</v>
       </c>
       <c r="N3" t="n">
-        <v>587.0503130509049</v>
+        <v>587.0503130509044</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>235.5685997206018</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>243.3338092873309</v>
+        <v>243.3338092873286</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>352.5293361848371</v>
       </c>
       <c r="M6" t="n">
-        <v>246.0279049476017</v>
+        <v>595.819074544836</v>
       </c>
       <c r="N6" t="n">
-        <v>587.0503130509051</v>
+        <v>587.0503130509044</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8544,13 +8544,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>360.9263022629402</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>123.484437346749</v>
+        <v>123.4844373467458</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>123.4844373467463</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.6665654608211</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>123.4844373467463</v>
       </c>
       <c r="K18" t="n">
-        <v>303.3708995205697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>123.484437346749</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>373.5676906361335</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>123.484437346749</v>
+        <v>123.4844373467477</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -10428,7 +10428,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163512</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466187</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425307</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466189</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163514</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466198</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,13 +11385,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466189</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319175</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.1936540692125</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>51.32205170346137</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>317.1002287293049</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>236.4138434148441</v>
+        <v>236.413843414844</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>77.54049576322075</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.06948942449536</v>
+        <v>92.06948942449516</v>
       </c>
       <c r="T11" t="n">
-        <v>129.1333413673366</v>
+        <v>129.1333413673364</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.4257067174172</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>240.7000313093915</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.9497007119507</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.8103649439096</v>
+        <v>88.81036494390942</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.0103597893099</v>
       </c>
       <c r="D13" t="n">
-        <v>58.63172418688848</v>
+        <v>58.63172418688829</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>58.04639837085405</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>64.80335745095508</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>165.218501343535</v>
       </c>
       <c r="W13" t="n">
-        <v>190.3853874141485</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>78.58125773418921</v>
+        <v>35.49474309558988</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>297.1936540692124</v>
       </c>
       <c r="C14" t="n">
-        <v>285.2049710268943</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.1862750714221</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>297.9284126413276</v>
       </c>
       <c r="F14" t="n">
-        <v>286.7271178743173</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0001307873486</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>285.3003890200952</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>251.9242669266932</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.5356538687812</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.01035978931007</v>
+        <v>75.0103597893099</v>
       </c>
       <c r="D16" t="n">
-        <v>58.63172418688846</v>
+        <v>58.63172418688829</v>
       </c>
       <c r="E16" t="n">
-        <v>57.57947404266791</v>
+        <v>57.57947404266774</v>
       </c>
       <c r="F16" t="n">
-        <v>58.04639837085422</v>
+        <v>58.04639837085405</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.80335745095489</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.60714916181759</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.5336287275939</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.4084814715884</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1123272.340180847</v>
+        <v>1123272.340180846</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1123272.340180846</v>
+        <v>1123272.340180847</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76762.40604941815</v>
+        <v>76762.40604941819</v>
       </c>
       <c r="C2" t="n">
+        <v>76762.40604941813</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76762.40604941816</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66666.56546394496</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66666.56546394496</v>
+      </c>
+      <c r="G2" t="n">
         <v>76762.40604941818</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>76762.40604941819</v>
+      </c>
+      <c r="I2" t="n">
         <v>76762.40604941818</v>
       </c>
-      <c r="E2" t="n">
-        <v>66666.56546394501</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66666.56546394501</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>76762.40604941822</v>
       </c>
-      <c r="H2" t="n">
-        <v>76762.4060494182</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>76762.40604941819</v>
-      </c>
-      <c r="J2" t="n">
-        <v>76762.4060494182</v>
-      </c>
-      <c r="K2" t="n">
-        <v>76762.4060494182</v>
       </c>
       <c r="L2" t="n">
         <v>76762.40604941804</v>
       </c>
       <c r="M2" t="n">
+        <v>76762.40604941823</v>
+      </c>
+      <c r="N2" t="n">
         <v>76762.40604941822</v>
       </c>
-      <c r="N2" t="n">
-        <v>76762.40604941818</v>
-      </c>
       <c r="O2" t="n">
-        <v>76762.40604941828</v>
+        <v>76762.40604941826</v>
       </c>
       <c r="P2" t="n">
-        <v>76762.40604941823</v>
+        <v>76762.40604941826</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160971.3638405248</v>
+        <v>160971.3638405246</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13968.41893580356</v>
+        <v>13968.41893580373</v>
       </c>
       <c r="E3" t="n">
-        <v>109498.6870316822</v>
+        <v>109498.6870316821</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>59905.73913112825</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208854.0161477512</v>
+        <v>208854.0161477513</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>69213.04195975677</v>
+        <v>69213.04195975694</v>
       </c>
       <c r="M3" t="n">
-        <v>22084.35219766547</v>
+        <v>22084.35219766527</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40822.3437464884</v>
+        <v>40822.34374648841</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219216.276966949</v>
+        <v>219216.2769669491</v>
       </c>
       <c r="C4" t="n">
-        <v>219216.276966949</v>
+        <v>219216.2769669491</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>140959.0860285797</v>
+        <v>140959.0860285798</v>
       </c>
       <c r="F4" t="n">
-        <v>140959.0860285797</v>
+        <v>140959.0860285799</v>
       </c>
       <c r="G4" t="n">
         <v>198390.5914932772</v>
       </c>
       <c r="H4" t="n">
-        <v>198390.5914932772</v>
+        <v>198390.5914932773</v>
       </c>
       <c r="I4" t="n">
-        <v>198390.5914932772</v>
+        <v>198390.5914932773</v>
       </c>
       <c r="J4" t="n">
         <v>198353.379977676</v>
@@ -26445,7 +26445,7 @@
         <v>198353.3799776761</v>
       </c>
       <c r="L4" t="n">
-        <v>198112.5265492106</v>
+        <v>198112.5265492105</v>
       </c>
       <c r="M4" t="n">
         <v>197569.3581676765</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62831.97845657835</v>
+        <v>62831.97845657832</v>
       </c>
       <c r="C5" t="n">
-        <v>62831.97845657836</v>
+        <v>62831.97845657832</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46326.49540297886</v>
+        <v>46326.49540297882</v>
       </c>
       <c r="F5" t="n">
-        <v>46326.49540297886</v>
+        <v>46326.49540297884</v>
       </c>
       <c r="G5" t="n">
-        <v>52621.76488174739</v>
+        <v>52621.76488174735</v>
       </c>
       <c r="H5" t="n">
-        <v>52621.76488174738</v>
+        <v>52621.76488174737</v>
       </c>
       <c r="I5" t="n">
         <v>52621.76488174738</v>
@@ -26497,7 +26497,7 @@
         <v>58943.11413656327</v>
       </c>
       <c r="L5" t="n">
-        <v>57187.12750810518</v>
+        <v>57187.12750810516</v>
       </c>
       <c r="M5" t="n">
         <v>53020.52544612264</v>
@@ -26506,10 +26506,10 @@
         <v>53020.52544612266</v>
       </c>
       <c r="O5" t="n">
+        <v>53020.52544612265</v>
+      </c>
+      <c r="P5" t="n">
         <v>53020.52544612266</v>
-      </c>
-      <c r="P5" t="n">
-        <v>53020.52544612265</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366257.213214634</v>
+        <v>-366257.2132146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-205285.8493741092</v>
+        <v>-205285.8493741093</v>
       </c>
       <c r="D6" t="n">
-        <v>-210955.1546181203</v>
+        <v>-210955.1546181205</v>
       </c>
       <c r="E6" t="n">
-        <v>-230117.7029992957</v>
+        <v>-230370.0990139326</v>
       </c>
       <c r="F6" t="n">
-        <v>-120619.0159676136</v>
+        <v>-120871.4119822506</v>
       </c>
       <c r="G6" t="n">
-        <v>-234155.6894567347</v>
+        <v>-234155.6894567346</v>
       </c>
       <c r="H6" t="n">
-        <v>-174249.9503256063</v>
+        <v>-174249.9503256064</v>
       </c>
       <c r="I6" t="n">
-        <v>-174249.9503256064</v>
+        <v>-174249.9503256065</v>
       </c>
       <c r="J6" t="n">
-        <v>-389388.1042125723</v>
+        <v>-389388.1042125724</v>
       </c>
       <c r="K6" t="n">
-        <v>-180534.0880648211</v>
+        <v>-180534.0880648212</v>
       </c>
       <c r="L6" t="n">
-        <v>-247750.2899676545</v>
+        <v>-247750.2899676546</v>
       </c>
       <c r="M6" t="n">
-        <v>-195911.8297620464</v>
+        <v>-195911.8297620462</v>
       </c>
       <c r="N6" t="n">
         <v>-173827.477564381</v>
       </c>
       <c r="O6" t="n">
-        <v>-214649.8213108693</v>
+        <v>-214649.8213108694</v>
       </c>
       <c r="P6" t="n">
-        <v>-173827.4775643809</v>
+        <v>-173827.477564381</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="F2" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="G2" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H2" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I2" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J2" t="n">
         <v>125.9101035970208</v>
@@ -26713,10 +26713,10 @@
         <v>125.9101035970209</v>
       </c>
       <c r="L2" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="M2" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="N2" t="n">
         <v>165.1496723798883</v>
@@ -26725,7 +26725,7 @@
         <v>165.1496723798883</v>
       </c>
       <c r="P2" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="C4" t="n">
-        <v>480.3351719831967</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629249</v>
       </c>
       <c r="F4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.003264062925</v>
       </c>
       <c r="G4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.003264062925</v>
       </c>
       <c r="H4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629252</v>
       </c>
       <c r="I4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629254</v>
       </c>
       <c r="J4" t="n">
         <v>793.8829810176098</v>
@@ -26817,10 +26817,10 @@
         <v>793.8829810176098</v>
       </c>
       <c r="L4" t="n">
-        <v>748.9149517358161</v>
+        <v>748.9149517358155</v>
       </c>
       <c r="M4" t="n">
-        <v>642.2148889378808</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="N4" t="n">
         <v>642.214888937881</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>74.88217391391031</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.02792968311053</v>
+        <v>51.02792968311054</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>86.51630244969596</v>
+        <v>86.51630244969618</v>
       </c>
       <c r="M2" t="n">
-        <v>27.60544024708184</v>
+        <v>27.60544024708159</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.0279296831105</v>
+        <v>51.02792968311051</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.96802928179363</v>
+        <v>44.9680292817942</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7000627979353</v>
+        <v>106.7000627979346</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>642.2148889378805</v>
+        <v>642.2148889378807</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>74.88217391391031</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.02792968311053</v>
+        <v>51.02792968311054</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>44.96802928179363</v>
+        <v>44.9680292817942</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7000627979353</v>
+        <v>106.7000627979346</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.4764006420629</v>
+        <v>287.6110554727859</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>122.0785227680703</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>28.82805325929866</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>235.5224429391254</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14.68413607146334</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>161.9961700733295</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27679,10 +27679,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>263.2083042811703</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89.68559146228908</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>120.8664716860756</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27792,10 +27792,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>73.23022383480695</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,10 +27831,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4039510689993</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>301.6407289842107</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>193.2317291262455</v>
       </c>
     </row>
     <row r="9">
@@ -27932,19 +27932,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11.76792460626649</v>
       </c>
       <c r="G9" t="n">
-        <v>106.9543721480277</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>42.71577926664513</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>94.16710381075333</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="C11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="D11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="E11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="F11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="G11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="H11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="I11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="J11" t="n">
-        <v>92.90945005362641</v>
+        <v>27.66540891074617</v>
       </c>
       <c r="K11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="L11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="M11" t="n">
-        <v>92.90945005362641</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>27.66540891075107</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="R11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="S11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="T11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="U11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="V11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="W11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="X11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
     </row>
     <row r="12">
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>39.62927381472858</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.62927381472564</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="C13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="D13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="E13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="F13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="G13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="H13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="I13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="J13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="K13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="L13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="M13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="N13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="O13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="P13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="R13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="S13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="T13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="U13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="V13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="W13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="X13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.90945005362641</v>
+        <v>92.9094500536266</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="C14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="D14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="E14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="F14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="G14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="H14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="I14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="J14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="K14" t="n">
-        <v>27.66540891075073</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="N14" t="n">
-        <v>92.90945005362643</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>92.90945005362643</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>92.90945005362643</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>27.66540891074696</v>
       </c>
       <c r="R14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="S14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="T14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="U14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="V14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="W14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="X14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.62927381472548</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.62927381472834</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="C16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="D16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="E16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="F16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="G16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="H16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="I16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="J16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="K16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="L16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="M16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="N16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="O16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="P16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="R16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="S16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="T16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="U16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="V16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="W16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="X16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.90945005362643</v>
+        <v>92.9094500536266</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="F17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7916239675368</v>
+        <v>156.6294112438064</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28606,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>156.6294112438089</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="R17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="S17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39.62927381472548</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.62927381472834</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,19 +28719,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>157.5597811274158</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G19" t="n">
         <v>167.2231153185963</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>23.90663257417899</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.7916239675368</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="20">
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7916239675367</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>167.7916239675367</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="R20" t="n">
-        <v>156.6294112438091</v>
+        <v>156.6294112438068</v>
       </c>
       <c r="S20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="21">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.6292738147279</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>39.62927381472568</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28977,7 +28977,7 @@
         <v>157.7128075045815</v>
       </c>
       <c r="I22" t="n">
-        <v>142.5373983489465</v>
+        <v>166.4440309231241</v>
       </c>
       <c r="J22" t="n">
         <v>58.93095321465074</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>23.90663257417923</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="23">
@@ -29035,43 +29035,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="F23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="L23" t="n">
-        <v>167.7916239675367</v>
+        <v>156.6294112438076</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>156.62941124381</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="S23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>39.6292738147268</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.62927381472564</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,16 +29193,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E25" t="n">
-        <v>158.1451069434517</v>
+        <v>158.14510694345</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29244,25 +29244,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="26">
@@ -29457,19 +29457,19 @@
         <v>125.9101035970208</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>125.9101035970208</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>125.9101035970208</v>
+        <v>65.97652110912428</v>
       </c>
       <c r="N28" t="n">
         <v>125.9101035970208</v>
       </c>
       <c r="O28" t="n">
-        <v>65.97652110912421</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>125.9101035970208</v>
@@ -29694,7 +29694,7 @@
         <v>125.9101035970209</v>
       </c>
       <c r="K31" t="n">
-        <v>125.9101035970209</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29703,13 +29703,13 @@
         <v>125.9101035970209</v>
       </c>
       <c r="N31" t="n">
-        <v>65.97652110912416</v>
+        <v>65.97652110912405</v>
       </c>
       <c r="O31" t="n">
         <v>125.9101035970209</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="Q31" t="n">
         <v>125.9101035970209</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="C32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="D32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="E32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="F32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="G32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="I32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="K32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="L32" t="n">
-        <v>137.5442321328065</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>137.5442321328065</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="O32" t="n">
-        <v>129.8703125211651</v>
+        <v>129.8703125211615</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="R32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="S32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="T32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="U32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="V32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="W32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="X32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
     </row>
     <row r="33">
@@ -29904,43 +29904,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="C34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="D34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="E34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="F34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="G34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="I34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="J34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="K34" t="n">
-        <v>92.96876717028071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="M34" t="n">
-        <v>137.5442321328065</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>92.96876717027614</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="R34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="S34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="T34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="U34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="V34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="W34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="X34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>165.1496723798884</v>
+        <v>37.19755063499997</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.19755063499932</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="R35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="S35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H37" t="n">
         <v>157.7128075045815</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>50.28251996071479</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.3543881206524</v>
+        <v>37.52931879979313</v>
       </c>
       <c r="R37" t="n">
-        <v>165.1496723798884</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="38">
@@ -30244,7 +30244,7 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>37.19755063500043</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>37.19755063500043</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-9.023892744153272e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30396,13 +30396,13 @@
         <v>165.1496723798883</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I40" t="n">
-        <v>142.5373983489465</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J40" t="n">
-        <v>58.93095321465074</v>
+        <v>79.16433426911684</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.35438812065263</v>
+        <v>37.52931879979313</v>
       </c>
       <c r="R40" t="n">
-        <v>165.1496723798883</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S40" t="n">
         <v>165.1496723798883</v>
@@ -30481,28 +30481,28 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="K41" t="n">
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>37.19755063500057</v>
+      </c>
+      <c r="Q41" t="n">
         <v>165.1496723798883</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>37.19755063500025</v>
       </c>
       <c r="R41" t="n">
         <v>165.1496723798883</v>
@@ -30633,13 +30633,13 @@
         <v>165.1496723798883</v>
       </c>
       <c r="H43" t="n">
-        <v>165.1496723798883</v>
+        <v>157.7128075045815</v>
       </c>
       <c r="I43" t="n">
         <v>142.5373983489465</v>
       </c>
       <c r="J43" t="n">
-        <v>59.31353792168363</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.52931879979313</v>
+        <v>45.34876838213349</v>
       </c>
       <c r="R43" t="n">
         <v>147.692221740033</v>
@@ -30694,37 +30694,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>37.19755063500031</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>37.19755063500048</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E46" t="n">
-        <v>156.5284811953536</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I46" t="n">
-        <v>165.1496723798883</v>
+        <v>142.919983055979</v>
       </c>
       <c r="J46" t="n">
         <v>58.93095321465074</v>
@@ -30903,25 +30903,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>137.2366076090475</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34711,7 +34711,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>130.0302118062631</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>191.4067766618265</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="N3" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>119.7091511094907</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>64.51080531328418</v>
+        <v>64.51080531328194</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>239.9539026136893</v>
       </c>
       <c r="M6" t="n">
-        <v>130.5440023859618</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="N6" t="n">
-        <v>480.3351719831967</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35264,13 +35264,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>252.0720962387968</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>167.0421961240671</v>
+        <v>101.7981549811869</v>
       </c>
       <c r="K11" t="n">
-        <v>337.5841264277861</v>
+        <v>337.5841264277863</v>
       </c>
       <c r="L11" t="n">
-        <v>446.9247761542163</v>
+        <v>446.9247761542165</v>
       </c>
       <c r="M11" t="n">
-        <v>493.0314879133364</v>
+        <v>400.12203785971</v>
       </c>
       <c r="N11" t="n">
-        <v>412.7761544110376</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O11" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P11" t="n">
-        <v>232.8452906963923</v>
+        <v>325.7547407500189</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.176233682559</v>
+        <v>190.0856837361856</v>
       </c>
       <c r="R11" t="n">
-        <v>4.218845189302386</v>
+        <v>4.218845189302571</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>21.26683175375042</v>
+        <v>21.26683175374727</v>
       </c>
       <c r="K12" t="n">
         <v>233.2408564388568</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.97849683897568</v>
+        <v>33.97849683897586</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7169819656404</v>
+        <v>127.7169819656406</v>
       </c>
       <c r="L13" t="n">
-        <v>195.6382672932847</v>
+        <v>195.6382672932849</v>
       </c>
       <c r="M13" t="n">
-        <v>213.2604094963425</v>
+        <v>213.2604094963427</v>
       </c>
       <c r="N13" t="n">
-        <v>213.6658614352433</v>
+        <v>213.6658614352434</v>
       </c>
       <c r="O13" t="n">
-        <v>193.4186992172116</v>
+        <v>193.4186992172118</v>
       </c>
       <c r="P13" t="n">
-        <v>157.4133085764703</v>
+        <v>157.4133085764705</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.38013125383328</v>
+        <v>55.38013125383347</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>167.0421961240671</v>
+        <v>167.0421961240673</v>
       </c>
       <c r="K14" t="n">
-        <v>272.3400852849105</v>
+        <v>337.5841264277863</v>
       </c>
       <c r="L14" t="n">
-        <v>354.0153261005899</v>
+        <v>446.9247761542165</v>
       </c>
       <c r="M14" t="n">
-        <v>400.12203785971</v>
+        <v>493.0314879133365</v>
       </c>
       <c r="N14" t="n">
-        <v>478.020195553913</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O14" t="n">
-        <v>403.7879102899485</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P14" t="n">
-        <v>325.7547407500188</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.176233682559</v>
+        <v>124.841642593306</v>
       </c>
       <c r="R14" t="n">
-        <v>4.2188451893024</v>
+        <v>4.218845189302571</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>61.7007403495329</v>
+        <v>21.26683175374772</v>
       </c>
       <c r="K15" t="n">
         <v>233.2408564388568</v>
@@ -35744,7 +35744,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.0635482236273</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.97849683897569</v>
+        <v>33.97849683897586</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7169819656404</v>
+        <v>127.7169819656406</v>
       </c>
       <c r="L16" t="n">
-        <v>195.6382672932847</v>
+        <v>195.6382672932849</v>
       </c>
       <c r="M16" t="n">
-        <v>213.2604094963425</v>
+        <v>213.2604094963427</v>
       </c>
       <c r="N16" t="n">
-        <v>213.6658614352433</v>
+        <v>213.6658614352434</v>
       </c>
       <c r="O16" t="n">
-        <v>193.4186992172116</v>
+        <v>193.4186992172118</v>
       </c>
       <c r="P16" t="n">
-        <v>157.4133085764703</v>
+        <v>157.4133085764705</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.3801312538333</v>
+        <v>55.38013125383347</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>241.9243700379775</v>
+        <v>230.7621573142471</v>
       </c>
       <c r="K17" t="n">
         <v>244.6746763741597</v>
@@ -35902,10 +35902,10 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.8056449263679</v>
+        <v>264.9678576500959</v>
       </c>
       <c r="R17" t="n">
-        <v>79.10101910321274</v>
+        <v>79.10101910321288</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>61.7007403495329</v>
+        <v>21.26683175374772</v>
       </c>
       <c r="K18" t="n">
-        <v>192.8069478430743</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L18" t="n">
         <v>371.442808484156</v>
@@ -36024,10 +36024,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7.070857031121423</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>16.83577554305626</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>120.7564113816168</v>
       </c>
       <c r="O19" t="n">
-        <v>124.4158817377642</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P19" t="n">
         <v>64.50385852284386</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>241.9243700379775</v>
+        <v>74.13274607044073</v>
       </c>
       <c r="K20" t="n">
-        <v>412.4663003416965</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L20" t="n">
-        <v>354.0153261005899</v>
+        <v>521.8069500681269</v>
       </c>
       <c r="M20" t="n">
         <v>400.12203785971</v>
@@ -36139,10 +36139,10 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.176233682559</v>
+        <v>264.9678576500959</v>
       </c>
       <c r="R20" t="n">
-        <v>67.9388063794851</v>
+        <v>67.93880637948281</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>21.26683175375042</v>
+        <v>61.7007403495329</v>
       </c>
       <c r="K21" t="n">
         <v>233.2408564388568</v>
@@ -36215,7 +36215,7 @@
         <v>398.2718280705802</v>
       </c>
       <c r="P21" t="n">
-        <v>306.8410642033352</v>
+        <v>266.4071556075504</v>
       </c>
       <c r="Q21" t="n">
         <v>160.49745681941</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>23.90663257417767</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>120.3509594427161</v>
       </c>
       <c r="N22" t="n">
-        <v>144.6630439557961</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O22" t="n">
         <v>100.5092491635852</v>
@@ -36358,16 +36358,16 @@
         <v>74.13274607044073</v>
       </c>
       <c r="K23" t="n">
-        <v>244.6746763741597</v>
+        <v>412.4663003416966</v>
       </c>
       <c r="L23" t="n">
-        <v>521.8069500681266</v>
+        <v>510.6447373443975</v>
       </c>
       <c r="M23" t="n">
         <v>400.12203785971</v>
       </c>
       <c r="N23" t="n">
-        <v>541.7401567440966</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O23" t="n">
         <v>310.8784602363221</v>
@@ -36379,7 +36379,7 @@
         <v>97.176233682559</v>
       </c>
       <c r="R23" t="n">
-        <v>79.10101910321271</v>
+        <v>79.10101910321288</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>21.26683175375042</v>
+        <v>21.26683175374907</v>
       </c>
       <c r="K24" t="n">
         <v>233.2408564388568</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>16.25044972702185</v>
+        <v>16.25044972702202</v>
       </c>
       <c r="E25" t="n">
-        <v>7.656182847157387</v>
+        <v>7.656182847155636</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>436.7885638333429</v>
       </c>
       <c r="P26" t="n">
-        <v>358.7553942934131</v>
+        <v>358.7553942934132</v>
       </c>
       <c r="Q26" t="n">
         <v>223.0863372795799</v>
@@ -36753,19 +36753,19 @@
         <v>66.97915038237012</v>
       </c>
       <c r="K28" t="n">
-        <v>34.80753191201401</v>
+        <v>160.7176355090348</v>
       </c>
       <c r="L28" t="n">
         <v>102.7288172396583</v>
       </c>
       <c r="M28" t="n">
-        <v>246.2610630397369</v>
+        <v>186.3274805518404</v>
       </c>
       <c r="N28" t="n">
         <v>246.6665149786377</v>
       </c>
       <c r="O28" t="n">
-        <v>166.4857702727094</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P28" t="n">
         <v>190.4139621198647</v>
@@ -36990,7 +36990,7 @@
         <v>66.97915038237012</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7176355090349</v>
+        <v>34.80753191201401</v>
       </c>
       <c r="L31" t="n">
         <v>102.7288172396583</v>
@@ -36999,13 +36999,13 @@
         <v>246.2610630397369</v>
       </c>
       <c r="N31" t="n">
-        <v>186.732932490741</v>
+        <v>186.7329324907409</v>
       </c>
       <c r="O31" t="n">
         <v>226.419352760606</v>
       </c>
       <c r="P31" t="n">
-        <v>64.50385852284386</v>
+        <v>190.4139621198647</v>
       </c>
       <c r="Q31" t="n">
         <v>88.38078479722773</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>211.6769782032472</v>
+        <v>211.6769782032475</v>
       </c>
       <c r="K32" t="n">
-        <v>382.2189085069662</v>
+        <v>382.2189085069664</v>
       </c>
       <c r="L32" t="n">
-        <v>491.5595582333964</v>
+        <v>354.0153261005899</v>
       </c>
       <c r="M32" t="n">
-        <v>537.6662699925165</v>
+        <v>400.12203785971</v>
       </c>
       <c r="N32" t="n">
-        <v>522.654977633093</v>
+        <v>522.6549776330933</v>
       </c>
       <c r="O32" t="n">
-        <v>440.7487727574872</v>
+        <v>440.7487727574836</v>
       </c>
       <c r="P32" t="n">
-        <v>232.8452906963923</v>
+        <v>370.3895228291991</v>
       </c>
       <c r="Q32" t="n">
-        <v>97.176233682559</v>
+        <v>234.7204658153657</v>
       </c>
       <c r="R32" t="n">
-        <v>48.85362726848248</v>
+        <v>48.85362726848271</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>61.7007403495329</v>
       </c>
       <c r="K33" t="n">
-        <v>233.2408564388558</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L33" t="n">
         <v>371.442808484156</v>
@@ -37157,7 +37157,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N33" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667031</v>
       </c>
       <c r="O33" t="n">
         <v>398.2718280705802</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.61327891815579</v>
+        <v>78.61327891815601</v>
       </c>
       <c r="K34" t="n">
-        <v>127.7762990822947</v>
+        <v>34.80753191201401</v>
       </c>
       <c r="L34" t="n">
-        <v>102.7288172396583</v>
+        <v>240.273049372465</v>
       </c>
       <c r="M34" t="n">
-        <v>257.8951915755226</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N34" t="n">
-        <v>120.7564113816168</v>
+        <v>213.725178551893</v>
       </c>
       <c r="O34" t="n">
         <v>100.5092491635852</v>
@@ -37245,7 +37245,7 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.0149133330134</v>
+        <v>100.0149133330136</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>239.2824184503291</v>
+        <v>74.13274607044073</v>
       </c>
       <c r="K35" t="n">
-        <v>409.8243487540481</v>
+        <v>281.8722270091597</v>
       </c>
       <c r="L35" t="n">
         <v>354.0153261005899</v>
@@ -37321,13 +37321,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P35" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.3737843175583</v>
+        <v>262.3259060624474</v>
       </c>
       <c r="R35" t="n">
-        <v>76.45906751556433</v>
+        <v>76.4590675155643</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>61.70074034953215</v>
+        <v>61.7007403495329</v>
       </c>
       <c r="K36" t="n">
         <v>233.2408564388568</v>
@@ -37394,7 +37394,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N36" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667034</v>
       </c>
       <c r="O36" t="n">
         <v>398.2718280705802</v>
@@ -37473,7 +37473,7 @@
         <v>120.3509594427161</v>
       </c>
       <c r="N37" t="n">
-        <v>120.7564113816168</v>
+        <v>171.0389313423316</v>
       </c>
       <c r="O37" t="n">
         <v>100.5092491635852</v>
@@ -37482,10 +37482,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.82506932085926</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45745063985536</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>74.13274607044073</v>
+        <v>111.3302967054412</v>
       </c>
       <c r="K38" t="n">
         <v>244.6746763741597</v>
@@ -37552,7 +37552,7 @@
         <v>400.12203785971</v>
       </c>
       <c r="N38" t="n">
-        <v>422.308296135287</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O38" t="n">
         <v>310.8784602363221</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>61.7007403495329</v>
+        <v>61.70074034953304</v>
       </c>
       <c r="K39" t="n">
         <v>233.2408564388568</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.436864875306837</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22.61227403094188</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>20.2333810544661</v>
       </c>
       <c r="K40" t="n">
         <v>34.80753191201401</v>
@@ -37719,10 +37719,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.82506932085949</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45745063985533</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>239.2824184503291</v>
+        <v>74.13274607044073</v>
       </c>
       <c r="K41" t="n">
-        <v>409.824348754048</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
         <v>354.0153261005899</v>
       </c>
       <c r="M41" t="n">
-        <v>400.12203785971</v>
+        <v>565.2717102395983</v>
       </c>
       <c r="N41" t="n">
         <v>385.1107455002866</v>
@@ -37795,13 +37795,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P41" t="n">
-        <v>232.8452906963923</v>
+        <v>270.0428413313929</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.3737843175593</v>
+        <v>262.3259060624473</v>
       </c>
       <c r="R41" t="n">
-        <v>76.4590675155643</v>
+        <v>76.45906751556427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>61.7007403495329</v>
       </c>
       <c r="K42" t="n">
-        <v>233.240856438856</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L42" t="n">
         <v>371.442808484156</v>
@@ -37868,7 +37868,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N42" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667043</v>
       </c>
       <c r="O42" t="n">
         <v>398.2718280705802</v>
@@ -37917,25 +37917,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>13.60849813937344</v>
+        <v>13.60849813937341</v>
       </c>
       <c r="E43" t="n">
-        <v>14.66074828359399</v>
+        <v>14.66074828359396</v>
       </c>
       <c r="F43" t="n">
-        <v>14.19382395540768</v>
+        <v>14.19382395540765</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.436864875306837</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3825847070328882</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>34.80753191201401</v>
@@ -37956,7 +37956,7 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7.819449582340361</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.13274607044073</v>
+        <v>239.2824184503291</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6746763741597</v>
+        <v>409.8243487540481</v>
       </c>
       <c r="L44" t="n">
-        <v>354.0153261005899</v>
+        <v>391.2128767355902</v>
       </c>
       <c r="M44" t="n">
         <v>400.12203785971</v>
@@ -38029,16 +38029,16 @@
         <v>385.1107455002866</v>
       </c>
       <c r="O44" t="n">
-        <v>348.0760108713226</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P44" t="n">
-        <v>397.9949630762806</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>262.3259060624473</v>
+        <v>97.176233682559</v>
       </c>
       <c r="R44" t="n">
-        <v>76.45906751556424</v>
+        <v>76.45906751556433</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N45" t="n">
-        <v>518.7367349667034</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O45" t="n">
         <v>398.2718280705802</v>
       </c>
       <c r="P45" t="n">
-        <v>306.8410642033352</v>
+        <v>306.8410642033344</v>
       </c>
       <c r="Q45" t="n">
         <v>160.49745681941</v>
@@ -38154,22 +38154,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>13.60849813937347</v>
       </c>
       <c r="E46" t="n">
-        <v>6.039557099059237</v>
+        <v>14.66074828359402</v>
       </c>
       <c r="F46" t="n">
-        <v>14.19382395540762</v>
+        <v>14.19382395540771</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.43686487530678</v>
+        <v>7.436864875306865</v>
       </c>
       <c r="I46" t="n">
-        <v>22.61227403094182</v>
+        <v>0.382584707032515</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
